--- a/WebContent/발표/3조 5차 요구사항정의서_hsw.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서_hsw.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="307">
   <si>
     <t>구분</t>
   </si>
@@ -1136,6 +1136,48 @@
     <t>카테고리 선택하면 카테고리에 해당하는 항목을 불러온다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>회원 가입</t>
+  </si>
+  <si>
+    <t>회원서비스</t>
+  </si>
+  <si>
+    <t>조립 컴퓨터</t>
+  </si>
+  <si>
+    <t>컴퓨터 부품</t>
+  </si>
+  <si>
+    <t>컴퓨터 견적 문의</t>
+  </si>
+  <si>
+    <t>개인 사양</t>
+  </si>
+  <si>
+    <t>고객센터</t>
+  </si>
+  <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>내정보</t>
+  </si>
+  <si>
+    <t>견적 관리</t>
+  </si>
+  <si>
+    <t>상품 관리</t>
+  </si>
+  <si>
+    <t>컴퓨터 견적 관리</t>
+  </si>
+  <si>
+    <t>주문관리</t>
+  </si>
+  <si>
+    <t>입고 관리</t>
+  </si>
 </sst>
 </file>
 
@@ -1748,7 +1790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1956,7 +1998,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1965,13 +2040,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1983,58 +2064,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2049,89 +2082,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2148,6 +2196,1132 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="그림 2"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1045"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="600075"/>
+              <a:ext cx="1257300" cy="1276350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="그림 4"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1046"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="600075"/>
+              <a:ext cx="1333500" cy="638175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="그림 5"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1047"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="1228725"/>
+              <a:ext cx="1333500" cy="647700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="그림 6"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1048"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="1866900"/>
+              <a:ext cx="1257300" cy="4210050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="그림 7"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="1866900"/>
+              <a:ext cx="1333500" cy="1057275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="그림 8"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="2914650"/>
+              <a:ext cx="1333500" cy="847725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="그림 9"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="3752850"/>
+              <a:ext cx="1333500" cy="428625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="그림 10"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="4171950"/>
+              <a:ext cx="1333500" cy="428625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="그림 11"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="4591050"/>
+              <a:ext cx="1333500" cy="638175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="그림 12"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="5219700"/>
+              <a:ext cx="1333500" cy="857250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="그림 13"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="6067425"/>
+              <a:ext cx="1257300" cy="1485900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="그림 14"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1056"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="7543800"/>
+              <a:ext cx="1257300" cy="2324100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="그림 15"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1057"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="6067425"/>
+              <a:ext cx="1333500" cy="847725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="그림 16"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1058"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="6905625"/>
+              <a:ext cx="1333500" cy="428625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="그림 17"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1059"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="7543800"/>
+              <a:ext cx="1333500" cy="428625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="그림 18"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1060"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="7962900"/>
+              <a:ext cx="1333500" cy="638175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="그림 19"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1061"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="8591550"/>
+              <a:ext cx="1333500" cy="428625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="그림 20"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1062"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="9010650"/>
+              <a:ext cx="1333500" cy="428625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="그림 21"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1063"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1247775" y="9429750"/>
+              <a:ext cx="1333500" cy="438150"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2496,10 +3670,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="79" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -2516,8 +3690,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="76"/>
-      <c r="C4" s="73"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2532,8 +3706,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="76"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -2548,8 +3722,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="76"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="89"/>
+      <c r="C6" s="79" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -2566,8 +3740,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -2582,8 +3756,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="77"/>
-      <c r="C8" s="74"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -2600,10 +3774,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="79" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2620,8 +3794,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="70"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -2636,11 +3810,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="70"/>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="84" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -2654,9 +3828,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="70"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2668,8 +3842,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="70"/>
-      <c r="C13" s="73"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -2684,8 +3858,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="70"/>
-      <c r="C14" s="73"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -2700,8 +3874,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="70"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -2718,8 +3892,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="70"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="79" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -2736,8 +3910,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="70"/>
-      <c r="C17" s="73"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -2752,8 +3926,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="70"/>
-      <c r="C18" s="73"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -2768,8 +3942,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="71"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -2784,10 +3958,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="79" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -2804,8 +3978,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="70"/>
-      <c r="C21" s="73"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -2820,8 +3994,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="70"/>
-      <c r="C22" s="74"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -2836,7 +4010,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="70"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -2854,10 +4028,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="79" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -2874,8 +4048,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="70"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -2890,8 +4064,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="70"/>
-      <c r="C26" s="74"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -2906,7 +4080,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="70"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -2924,7 +4098,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="71"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -2962,10 +4136,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="84" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -2982,8 +4156,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="73"/>
-      <c r="C31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -2998,8 +4172,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="70"/>
-      <c r="C32" s="72" t="s">
+      <c r="B32" s="81"/>
+      <c r="C32" s="79" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -3016,8 +4190,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="70"/>
-      <c r="C33" s="74"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -3032,8 +4206,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
-      <c r="C34" s="72" t="s">
+      <c r="B34" s="81"/>
+      <c r="C34" s="79" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -3050,8 +4224,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="70"/>
-      <c r="C35" s="73"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="80"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -3064,8 +4238,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -3080,8 +4254,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
-      <c r="C37" s="73"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="80"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -3096,8 +4270,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="70"/>
-      <c r="C38" s="74"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -3112,8 +4286,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="70"/>
-      <c r="C39" s="72" t="s">
+      <c r="B39" s="81"/>
+      <c r="C39" s="79" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -3130,8 +4304,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="70"/>
-      <c r="C40" s="73"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -3146,8 +4320,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="70"/>
-      <c r="C41" s="73"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="80"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -3162,8 +4336,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="70"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="80"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -3178,8 +4352,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="70"/>
-      <c r="C43" s="74"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="83"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -3194,8 +4368,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="70"/>
-      <c r="C44" s="72" t="s">
+      <c r="B44" s="81"/>
+      <c r="C44" s="79" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -3212,8 +4386,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="70"/>
-      <c r="C45" s="74"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="83"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -3228,8 +4402,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="70"/>
-      <c r="C46" s="72" t="s">
+      <c r="B46" s="81"/>
+      <c r="C46" s="79" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -3246,8 +4420,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="70"/>
-      <c r="C47" s="74"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="83"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -3262,8 +4436,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="70"/>
-      <c r="C48" s="72" t="s">
+      <c r="B48" s="81"/>
+      <c r="C48" s="79" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -3280,8 +4454,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="71"/>
-      <c r="C49" s="74"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="83"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -3297,6 +4471,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -3305,18 +4491,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3346,15 +4520,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -3386,21 +4560,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="98"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="99" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -3416,8 +4590,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -3431,8 +4605,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -3446,8 +4620,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
-      <c r="B7" s="81" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="100" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -3463,8 +4637,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -3478,7 +4652,7 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="101"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
@@ -3493,10 +4667,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="108" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -3512,8 +4686,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -3527,8 +4701,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -3542,8 +4716,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -3559,8 +4733,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
-      <c r="B14" s="82" t="s">
+      <c r="A14" s="92"/>
+      <c r="B14" s="110" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -3576,8 +4750,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -3591,8 +4765,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="89"/>
-      <c r="B16" s="82" t="s">
+      <c r="A16" s="92"/>
+      <c r="B16" s="110" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -3608,8 +4782,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="89"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -3623,8 +4797,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -3640,8 +4814,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
-      <c r="B19" s="84"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -3655,8 +4829,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="82" t="s">
+      <c r="A20" s="92"/>
+      <c r="B20" s="110" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -3672,8 +4846,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
-      <c r="B21" s="84"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -3687,8 +4861,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="82" t="s">
+      <c r="A22" s="92"/>
+      <c r="B22" s="110" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -3704,8 +4878,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -3719,8 +4893,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="89"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -3734,8 +4908,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="89"/>
-      <c r="B25" s="84"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -3749,8 +4923,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
-      <c r="B26" s="82" t="s">
+      <c r="A26" s="92"/>
+      <c r="B26" s="110" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -3766,8 +4940,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
-      <c r="B27" s="83"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -3781,8 +4955,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="89"/>
-      <c r="B28" s="83"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -3796,8 +4970,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="89"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -3811,10 +4985,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="99" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -3830,8 +5004,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="89"/>
-      <c r="B31" s="81"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -3845,8 +5019,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="89"/>
-      <c r="B32" s="81"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -3860,8 +5034,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="89"/>
-      <c r="B33" s="81"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -3875,8 +5049,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="89"/>
-      <c r="B34" s="81" t="s">
+      <c r="A34" s="92"/>
+      <c r="B34" s="100" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -3892,8 +5066,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="89"/>
-      <c r="B35" s="81"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -20282,8 +21456,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="89"/>
-      <c r="B36" s="81"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -20295,8 +21469,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="89"/>
-      <c r="B37" s="81" t="s">
+      <c r="A37" s="92"/>
+      <c r="B37" s="100" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -20312,8 +21486,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="89"/>
-      <c r="B38" s="81"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -20327,7 +21501,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="89"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -20344,10 +21518,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="107" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -20363,8 +21537,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="91"/>
-      <c r="B41" s="81"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -20378,8 +21552,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="91"/>
-      <c r="B42" s="81" t="s">
+      <c r="A42" s="97"/>
+      <c r="B42" s="100" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -20395,8 +21569,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="91"/>
-      <c r="B43" s="81"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -20410,11 +21584,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="91"/>
-      <c r="B44" s="81" t="s">
+      <c r="A44" s="97"/>
+      <c r="B44" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="110" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -20427,9 +21601,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="91"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="84"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="107"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -20440,8 +21614,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="91"/>
-      <c r="B46" s="81"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -20455,8 +21629,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="91"/>
-      <c r="B47" s="81"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -20470,8 +21644,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="91"/>
-      <c r="B48" s="81"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -20485,8 +21659,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="91"/>
-      <c r="B49" s="81" t="s">
+      <c r="A49" s="97"/>
+      <c r="B49" s="100" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -20502,8 +21676,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="91"/>
-      <c r="B50" s="81"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -20517,8 +21691,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="91"/>
-      <c r="B51" s="81"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -20532,8 +21706,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="91"/>
-      <c r="B52" s="81"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -20547,8 +21721,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="91"/>
-      <c r="B53" s="82" t="s">
+      <c r="A53" s="97"/>
+      <c r="B53" s="110" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -20564,8 +21738,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="91"/>
-      <c r="B54" s="83"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="109"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -20579,8 +21753,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="91"/>
-      <c r="B55" s="81" t="s">
+      <c r="A55" s="97"/>
+      <c r="B55" s="100" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -20596,8 +21770,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="91"/>
-      <c r="B56" s="81"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="100"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -20611,8 +21785,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="91"/>
-      <c r="B57" s="82" t="s">
+      <c r="A57" s="97"/>
+      <c r="B57" s="110" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -20628,8 +21802,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="92"/>
-      <c r="B58" s="84"/>
+      <c r="A58" s="106"/>
+      <c r="B58" s="107"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -20643,8 +21817,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="92"/>
-      <c r="B59" s="82" t="s">
+      <c r="A59" s="106"/>
+      <c r="B59" s="110" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -20660,8 +21834,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="92"/>
-      <c r="B60" s="95"/>
+      <c r="A60" s="106"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -20924,11 +22098,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -20945,11 +22119,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20971,11 +22145,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20989,20 +22163,22 @@
     <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="5.375" customWidth="1"/>
     <col min="9" max="9" width="5.75" customWidth="1"/>
+    <col min="14" max="14" width="16.375" customWidth="1"/>
+    <col min="15" max="15" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
+    <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104"/>
     </row>
-    <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -21031,25 +22207,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="98"/>
+    <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="95"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="69" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -21060,11 +22236,21 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
+      <c r="N4" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="112" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="70" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -21075,11 +22261,17 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="107" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -21090,13 +22282,17 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="105"/>
-      <c r="B7" s="106" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="70" t="s">
         <v>282</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -21107,11 +22303,19 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112" t="s">
+        <v>280</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="105"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="70" t="s">
         <v>281</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -21122,11 +22326,17 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
     </row>
-    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="108"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="110" t="s">
+    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="119" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="71" t="s">
         <v>280</v>
       </c>
       <c r="D9" s="35" t="s">
@@ -21137,15 +22347,17 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="111" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="69" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="31" t="s">
@@ -21158,11 +22370,21 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
+      <c r="N10" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="112" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="107" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="123" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="70" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -21175,11 +22397,17 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="107" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="123" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="70" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -21192,11 +22420,17 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="107" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="123" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -21207,11 +22441,17 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="107" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="70" t="s">
         <v>211</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -21224,13 +22464,17 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
-      <c r="B15" s="116" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="72" t="s">
         <v>221</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -21243,11 +22487,19 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="107" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="123" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="70" t="s">
         <v>224</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -21260,11 +22512,17 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="107" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="123" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="70" t="s">
         <v>226</v>
       </c>
       <c r="D17" s="33" t="s">
@@ -21277,11 +22535,17 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="113"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="107" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="124" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="70" t="s">
         <v>229</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -21294,13 +22558,17 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
-      <c r="B19" s="116" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="125" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="70" t="s">
         <v>215</v>
       </c>
       <c r="D19" s="33" t="s">
@@ -21311,11 +22579,19 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="107" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" s="123" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="70" t="s">
         <v>217</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -21328,13 +22604,17 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
-      <c r="B21" s="116" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="125" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="70" t="s">
         <v>233</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -21345,11 +22625,19 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="113"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="107" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" s="124" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="70" t="s">
         <v>235</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -21360,13 +22648,17 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
-      <c r="B23" s="116" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="70" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -21377,11 +22669,19 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="113"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="107" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="70" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -21392,11 +22692,17 @@
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="113"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="107" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="70" t="s">
         <v>237</v>
       </c>
       <c r="D25" s="33" t="s">
@@ -21407,13 +22713,17 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="113"/>
-      <c r="B26" s="116" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="125" t="s">
         <v>239</v>
       </c>
-      <c r="C26" s="107" t="s">
+      <c r="C26" s="70" t="s">
         <v>240</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -21424,11 +22734,19 @@
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="107" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="123" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27" s="70" t="s">
         <v>242</v>
       </c>
       <c r="D27" s="33" t="s">
@@ -21439,11 +22757,17 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="113"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="107" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28" s="123" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="70" t="s">
         <v>244</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -21454,11 +22778,17 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
     </row>
-    <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="113"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="117" t="s">
+    <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="123" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="72" t="s">
         <v>245</v>
       </c>
       <c r="D29" s="44" t="s">
@@ -21469,15 +22799,17 @@
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="111" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="120" t="s">
         <v>247</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="118" t="s">
+      <c r="C30" s="73" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="31" t="s">
@@ -21488,11 +22820,21 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="32"/>
+      <c r="N30" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" s="112" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="113"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="119" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" s="74" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="33" t="s">
@@ -21503,11 +22845,17 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="113"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="119" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="B32" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" s="74" t="s">
         <v>251</v>
       </c>
       <c r="D32" s="33" t="s">
@@ -21518,11 +22866,17 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
     </row>
     <row r="33" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A33" s="113"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="119" t="s">
+      <c r="A33" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="B33" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33" s="74" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="33" t="s">
@@ -21533,13 +22887,17 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
     </row>
     <row r="34" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A34" s="113"/>
-      <c r="B34" s="106" t="s">
+      <c r="A34" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="74" t="s">
         <v>255</v>
       </c>
       <c r="D34" s="33" t="s">
@@ -21552,11 +22910,19 @@
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="45"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="35" spans="1:16383" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="113"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="119" t="s">
+      <c r="A35" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="B35" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="74" t="s">
         <v>257</v>
       </c>
       <c r="D35" s="60" t="s">
@@ -21571,8 +22937,8 @@
       <c r="K35" s="46"/>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
@@ -37943,11 +39309,13 @@
       <c r="XFC35" s="46"/>
     </row>
     <row r="36" spans="1:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="120"/>
-      <c r="B36" s="110" t="s">
+      <c r="A36" s="126" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="121" t="s">
+      <c r="C36" s="75" t="s">
         <v>260</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -37960,15 +39328,19 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="36"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="116" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="37" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A37" s="122" t="s">
+      <c r="A37" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="76" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="55" t="s">
@@ -37979,11 +39351,21 @@
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="56"/>
+      <c r="N37" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="O37" s="112" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="38" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="107" t="s">
+      <c r="A38" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="70" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="33" t="s">
@@ -37994,13 +39376,17 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="34"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="112"/>
     </row>
     <row r="39" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A39" s="105"/>
-      <c r="B39" s="116" t="s">
+      <c r="A39" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="125" t="s">
         <v>285</v>
       </c>
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="70" t="s">
         <v>286</v>
       </c>
       <c r="D39" s="33" t="s">
@@ -38011,11 +39397,19 @@
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="34"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="40" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A40" s="105"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="107" t="s">
+      <c r="A40" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="123" t="s">
+        <v>303</v>
+      </c>
+      <c r="C40" s="70" t="s">
         <v>288</v>
       </c>
       <c r="D40" s="33" t="s">
@@ -38026,11 +39420,17 @@
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="34"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
     </row>
     <row r="41" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A41" s="105"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="107" t="s">
+      <c r="A41" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="124" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="70" t="s">
         <v>287</v>
       </c>
       <c r="D41" s="33" t="s">
@@ -38043,13 +39443,17 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="34"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
     </row>
     <row r="42" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A42" s="105"/>
-      <c r="B42" s="106" t="s">
+      <c r="A42" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="70" t="s">
         <v>142</v>
       </c>
       <c r="D42" s="33" t="s">
@@ -38060,11 +39464,19 @@
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="34"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="43" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A43" s="105"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="107" t="s">
+      <c r="A43" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="118" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="70" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="33" t="s">
@@ -38077,13 +39489,17 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
     </row>
     <row r="44" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A44" s="105"/>
-      <c r="B44" s="116" t="s">
+      <c r="A44" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="C44" s="107" t="s">
+      <c r="C44" s="70" t="s">
         <v>267</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -38096,11 +39512,19 @@
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="34"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="112" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="45" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A45" s="105"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="107" t="s">
+      <c r="A45" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="123" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" s="70" t="s">
         <v>270</v>
       </c>
       <c r="D45" s="33" t="s">
@@ -38113,13 +39537,17 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="34"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
     </row>
     <row r="46" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A46" s="124"/>
-      <c r="B46" s="116" t="s">
+      <c r="A46" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="117" t="s">
+      <c r="C46" s="72" t="s">
         <v>274</v>
       </c>
       <c r="D46" s="44" t="s">
@@ -38132,11 +39560,19 @@
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="112" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="47" spans="1:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="124"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="117" t="s">
+      <c r="A47" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="129" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="72" t="s">
         <v>277</v>
       </c>
       <c r="D47" s="44" t="s">
@@ -38149,15 +39585,17 @@
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
     </row>
     <row r="48" spans="1:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="127" t="s">
+      <c r="B48" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="127" t="s">
+      <c r="C48" s="78" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="53" t="s">
@@ -38400,30 +39838,32 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A10:A29"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="N30:N36"/>
+    <mergeCell ref="O30:O33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="N37:N47"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="N10:N29"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="O26:O29"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/WebContent/발표/3조 5차 요구사항정의서_hsw.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서_hsw.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="sw수정" sheetId="4" r:id="rId4"/>
-    <sheet name="sw수정 (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="담당자 및 진행도" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="329">
   <si>
     <t>구분</t>
   </si>
@@ -1200,10 +1200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>난이도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품후기</t>
   </si>
   <si>
@@ -1215,7 +1211,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>담당</t>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현규</t>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한송우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한송우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한송우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1909,7 +1956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2192,107 +2239,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2357,28 +2323,133 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2404,65 +2475,6 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="그림 2"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1102"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="600075"/>
-              <a:ext cx="1257300" cy="1276350"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
@@ -2481,13 +2493,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1103"/>
+                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1160"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -2540,13 +2552,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1104"/>
+                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1161"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -2599,13 +2611,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1105"/>
+                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1162"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -2658,13 +2670,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1106"/>
+                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1163"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -2717,13 +2729,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1107"/>
+                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1164"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -2776,13 +2788,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1108"/>
+                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1165"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -2835,13 +2847,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1109"/>
+                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1166"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -2894,13 +2906,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1110"/>
+                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1167"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -2953,13 +2965,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1111"/>
+                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1168"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3012,13 +3024,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1112"/>
+                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1169"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3071,13 +3083,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1113"/>
+                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1170"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3130,13 +3142,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1114"/>
+                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1171"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3189,13 +3201,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1115"/>
+                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1172"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3248,13 +3260,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1116"/>
+                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1173"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3307,13 +3319,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1117"/>
+                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1174"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3366,13 +3378,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1118"/>
+                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1175"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3425,13 +3437,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1119"/>
+                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1176"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3484,13 +3496,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1120"/>
+                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1177"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3521,14 +3533,9 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
@@ -3537,1080 +3544,18 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="그림 1"/>
+            <xdr:cNvPr id="23" name="그림 22"/>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$P$4" spid="_x0000_s2087"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="600075"/>
-              <a:ext cx="1247775" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="그림 2"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$4" spid="_x0000_s2088"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="600075"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>1228725</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>1304925</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="그림 3"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$7" spid="_x0000_s2089"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1228725" y="1228725"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="그림 4"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$P$10" spid="_x0000_s2090"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="1866900"/>
-              <a:ext cx="1247775" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="그림 5"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$10" spid="_x0000_s2091"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="1866900"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="그림 6"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$15" spid="_x0000_s2092"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="2914650"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="8" name="그림 7"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$19" spid="_x0000_s2093"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="3752850"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="9" name="그림 8"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$21" spid="_x0000_s2094"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="4171950"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="10" name="그림 9"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$23" spid="_x0000_s2095"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="4591050"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="11" name="그림 10"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$26" spid="_x0000_s2096"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="5219700"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="12" name="그림 11"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$P$30" spid="_x0000_s2097"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="6067425"/>
-              <a:ext cx="1247775" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="13" name="그림 12"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$P$37" spid="_x0000_s2098"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="7543800"/>
-              <a:ext cx="1247775" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="14" name="그림 13"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$30" spid="_x0000_s2099"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="6067425"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="15" name="그림 14"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$34" spid="_x0000_s2100"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="6905625"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="16" name="그림 15"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$37" spid="_x0000_s2101"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="7543800"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="17" name="그림 16"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$39" spid="_x0000_s2102"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="7962900"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="18" name="그림 17"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$42" spid="_x0000_s2103"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="8591550"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="그림 18"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$44" spid="_x0000_s2104"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="9010650"/>
-              <a:ext cx="1323975" cy="209550"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="20" name="그림 19"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$Q$46" spid="_x0000_s2105"/>
+                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1178"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4624,8 +3569,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="1247775" y="9429750"/>
-              <a:ext cx="1323975" cy="209550"/>
+              <a:off x="0" y="600075"/>
+              <a:ext cx="1257300" cy="1276350"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4996,10 +3941,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -5016,8 +3961,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="101"/>
-      <c r="C4" s="98"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -5032,8 +3977,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="101"/>
-      <c r="C5" s="99"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -5048,8 +3993,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="101"/>
-      <c r="C6" s="97" t="s">
+      <c r="B6" s="135"/>
+      <c r="C6" s="125" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -5066,8 +4011,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="101"/>
-      <c r="C7" s="98"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -5082,8 +4027,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="102"/>
-      <c r="C8" s="99"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="129"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -5100,10 +4045,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="125" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -5120,8 +4065,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="95"/>
-      <c r="C10" s="99"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -5136,11 +4081,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="95"/>
-      <c r="C11" s="97" t="s">
+      <c r="B11" s="127"/>
+      <c r="C11" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="130" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -5154,9 +4099,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="95"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="104"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -5168,8 +4113,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="95"/>
-      <c r="C13" s="98"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -5184,8 +4129,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="95"/>
-      <c r="C14" s="98"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="126"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -5200,8 +4145,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="95"/>
-      <c r="C15" s="99"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="129"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -5218,8 +4163,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="95"/>
-      <c r="C16" s="97" t="s">
+      <c r="B16" s="127"/>
+      <c r="C16" s="125" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -5236,8 +4181,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="95"/>
-      <c r="C17" s="98"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -5252,8 +4197,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="95"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -5268,8 +4213,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="96"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -5284,10 +4229,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="125" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -5304,8 +4249,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="95"/>
-      <c r="C21" s="98"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -5320,8 +4265,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="95"/>
-      <c r="C22" s="99"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -5336,7 +4281,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="95"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -5354,10 +4299,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="125" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -5374,8 +4319,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="95"/>
-      <c r="C25" s="98"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -5390,8 +4335,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="95"/>
-      <c r="C26" s="99"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="129"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -5406,7 +4351,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="95"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -5424,7 +4369,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="96"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -5462,10 +4407,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="130" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -5482,8 +4427,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="98"/>
-      <c r="C31" s="105"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="131"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -5498,8 +4443,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="95"/>
-      <c r="C32" s="97" t="s">
+      <c r="B32" s="127"/>
+      <c r="C32" s="125" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -5516,8 +4461,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="95"/>
-      <c r="C33" s="99"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -5532,8 +4477,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="95"/>
-      <c r="C34" s="97" t="s">
+      <c r="B34" s="127"/>
+      <c r="C34" s="125" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -5550,8 +4495,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="95"/>
-      <c r="C35" s="98"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -5564,8 +4509,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="95"/>
-      <c r="C36" s="98"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -5580,8 +4525,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="95"/>
-      <c r="C37" s="98"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="126"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -5596,8 +4541,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="95"/>
-      <c r="C38" s="99"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -5612,8 +4557,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="95"/>
-      <c r="C39" s="97" t="s">
+      <c r="B39" s="127"/>
+      <c r="C39" s="125" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -5630,8 +4575,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="95"/>
-      <c r="C40" s="98"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -5646,8 +4591,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="95"/>
-      <c r="C41" s="98"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -5662,8 +4607,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="95"/>
-      <c r="C42" s="98"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -5678,8 +4623,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="95"/>
-      <c r="C43" s="99"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -5694,8 +4639,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="95"/>
-      <c r="C44" s="97" t="s">
+      <c r="B44" s="127"/>
+      <c r="C44" s="125" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -5712,8 +4657,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="95"/>
-      <c r="C45" s="99"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="129"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -5728,8 +4673,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="95"/>
-      <c r="C46" s="97" t="s">
+      <c r="B46" s="127"/>
+      <c r="C46" s="125" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -5746,8 +4691,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="95"/>
-      <c r="C47" s="99"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -5762,8 +4707,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="95"/>
-      <c r="C48" s="97" t="s">
+      <c r="B48" s="127"/>
+      <c r="C48" s="125" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5780,8 +4725,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="96"/>
-      <c r="C49" s="99"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="129"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -5797,6 +4742,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -5805,18 +4762,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5846,15 +4791,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="110"/>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="112"/>
+      <c r="A1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -5886,21 +4831,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="121"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="141"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -5916,8 +4861,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="116"/>
-      <c r="B5" s="106"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -5931,8 +4876,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="116"/>
-      <c r="B6" s="106"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -5946,8 +4891,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="116"/>
-      <c r="B7" s="106" t="s">
+      <c r="A7" s="143"/>
+      <c r="B7" s="146" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5963,8 +4908,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="116"/>
-      <c r="B8" s="106"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5978,8 +4923,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="125"/>
-      <c r="B9" s="126"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5993,10 +4938,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="154" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -6012,8 +4957,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="114"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -6027,8 +4972,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="114"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -6042,8 +4987,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="114"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -6059,8 +5004,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="114"/>
-      <c r="B14" s="107" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="156" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -6076,8 +5021,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="114"/>
-      <c r="B15" s="108"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="155"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -6091,8 +5036,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="114"/>
-      <c r="B16" s="107" t="s">
+      <c r="A16" s="138"/>
+      <c r="B16" s="156" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -6108,8 +5053,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="114"/>
-      <c r="B17" s="108"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -6123,8 +5068,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="114"/>
-      <c r="B18" s="108"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -6140,8 +5085,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="114"/>
-      <c r="B19" s="109"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -6155,8 +5100,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="114"/>
-      <c r="B20" s="107" t="s">
+      <c r="A20" s="138"/>
+      <c r="B20" s="156" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -6172,8 +5117,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="114"/>
-      <c r="B21" s="109"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -6187,8 +5132,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="114"/>
-      <c r="B22" s="107" t="s">
+      <c r="A22" s="138"/>
+      <c r="B22" s="156" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -6204,8 +5149,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="114"/>
-      <c r="B23" s="108"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -6219,8 +5164,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="114"/>
-      <c r="B24" s="108"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -6234,8 +5179,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="114"/>
-      <c r="B25" s="109"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -6249,8 +5194,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="114"/>
-      <c r="B26" s="107" t="s">
+      <c r="A26" s="138"/>
+      <c r="B26" s="156" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -6266,8 +5211,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="114"/>
-      <c r="B27" s="108"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="155"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -6281,8 +5226,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="114"/>
-      <c r="B28" s="108"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="155"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -6296,8 +5241,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="114"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -6311,10 +5256,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="145" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -6330,8 +5275,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="114"/>
-      <c r="B31" s="106"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -6345,8 +5290,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="114"/>
-      <c r="B32" s="106"/>
+      <c r="A32" s="138"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -6360,8 +5305,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="114"/>
-      <c r="B33" s="106"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -6375,8 +5320,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="114"/>
-      <c r="B34" s="106" t="s">
+      <c r="A34" s="138"/>
+      <c r="B34" s="146" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -6392,8 +5337,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="114"/>
-      <c r="B35" s="106"/>
+      <c r="A35" s="138"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -22782,8 +21727,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="114"/>
-      <c r="B36" s="106"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -22795,8 +21740,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="114"/>
-      <c r="B37" s="106" t="s">
+      <c r="A37" s="138"/>
+      <c r="B37" s="146" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -22812,8 +21757,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="114"/>
-      <c r="B38" s="106"/>
+      <c r="A38" s="138"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -22827,7 +21772,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="114"/>
+      <c r="A39" s="138"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -22844,10 +21789,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="109" t="s">
+      <c r="B40" s="153" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -22863,8 +21808,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="116"/>
-      <c r="B41" s="106"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -22878,8 +21823,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="116"/>
-      <c r="B42" s="106" t="s">
+      <c r="A42" s="143"/>
+      <c r="B42" s="146" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -22895,8 +21840,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="116"/>
-      <c r="B43" s="106"/>
+      <c r="A43" s="143"/>
+      <c r="B43" s="146"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -22910,11 +21855,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="116"/>
-      <c r="B44" s="106" t="s">
+      <c r="A44" s="143"/>
+      <c r="B44" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="107" t="s">
+      <c r="C44" s="156" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -22927,9 +21872,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="116"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="109"/>
+      <c r="A45" s="143"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="153"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -22940,8 +21885,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="116"/>
-      <c r="B46" s="106"/>
+      <c r="A46" s="143"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22955,8 +21900,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="116"/>
-      <c r="B47" s="106"/>
+      <c r="A47" s="143"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22970,8 +21915,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="116"/>
-      <c r="B48" s="106"/>
+      <c r="A48" s="143"/>
+      <c r="B48" s="146"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22985,8 +21930,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="116"/>
-      <c r="B49" s="106" t="s">
+      <c r="A49" s="143"/>
+      <c r="B49" s="146" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -23002,8 +21947,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="116"/>
-      <c r="B50" s="106"/>
+      <c r="A50" s="143"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -23017,8 +21962,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="116"/>
-      <c r="B51" s="106"/>
+      <c r="A51" s="143"/>
+      <c r="B51" s="146"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -23032,8 +21977,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="116"/>
-      <c r="B52" s="106"/>
+      <c r="A52" s="143"/>
+      <c r="B52" s="146"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -23047,8 +21992,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="116"/>
-      <c r="B53" s="107" t="s">
+      <c r="A53" s="143"/>
+      <c r="B53" s="156" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -23064,8 +22009,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="116"/>
-      <c r="B54" s="108"/>
+      <c r="A54" s="143"/>
+      <c r="B54" s="155"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -23079,8 +22024,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="116"/>
-      <c r="B55" s="106" t="s">
+      <c r="A55" s="143"/>
+      <c r="B55" s="146" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -23096,8 +22041,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="116"/>
-      <c r="B56" s="106"/>
+      <c r="A56" s="143"/>
+      <c r="B56" s="146"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -23111,8 +22056,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="116"/>
-      <c r="B57" s="107" t="s">
+      <c r="A57" s="143"/>
+      <c r="B57" s="156" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -23128,8 +22073,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="117"/>
-      <c r="B58" s="109"/>
+      <c r="A58" s="152"/>
+      <c r="B58" s="153"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -23143,8 +22088,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="117"/>
-      <c r="B59" s="107" t="s">
+      <c r="A59" s="152"/>
+      <c r="B59" s="156" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -23160,8 +22105,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="117"/>
-      <c r="B60" s="120"/>
+      <c r="A60" s="152"/>
+      <c r="B60" s="157"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -23424,11 +22369,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -23445,11 +22390,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23475,7 +22420,7 @@
   <dimension ref="A1:XFC67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23494,15 +22439,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="110"/>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="112"/>
+      <c r="A1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -23534,15 +22479,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="121"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="141"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
@@ -23551,7 +22496,7 @@
       <c r="B4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="101" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -23562,10 +22507,10 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="N4" s="127" t="s">
+      <c r="N4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="127" t="s">
+      <c r="O4" s="158" t="s">
         <v>11</v>
       </c>
     </row>
@@ -23576,7 +22521,7 @@
       <c r="B5" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -23587,8 +22532,8 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
@@ -23597,7 +22542,7 @@
       <c r="B6" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="102" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -23608,8 +22553,8 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
@@ -23618,7 +22563,7 @@
       <c r="B7" s="82" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="102" t="s">
         <v>277</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -23629,8 +22574,8 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127" t="s">
+      <c r="N7" s="158"/>
+      <c r="O7" s="158" t="s">
         <v>275</v>
       </c>
     </row>
@@ -23641,7 +22586,7 @@
       <c r="B8" s="82" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="102" t="s">
         <v>276</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -23652,8 +22597,8 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="79" t="s">
@@ -23662,7 +22607,7 @@
       <c r="B9" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="103" t="s">
         <v>275</v>
       </c>
       <c r="D9" s="35" t="s">
@@ -23673,8 +22618,8 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="84" t="s">
@@ -23683,7 +22628,7 @@
       <c r="B10" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="109" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="31" t="s">
@@ -23696,10 +22641,10 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
-      <c r="N10" s="127" t="s">
+      <c r="N10" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="127" t="s">
+      <c r="O10" s="158" t="s">
         <v>103</v>
       </c>
     </row>
@@ -23710,7 +22655,7 @@
       <c r="B11" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="110" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -23723,8 +22668,8 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="86" t="s">
@@ -23733,7 +22678,7 @@
       <c r="B12" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="110" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -23746,8 +22691,8 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
@@ -23756,7 +22701,7 @@
       <c r="B13" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="110" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -23767,8 +22712,8 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="86" t="s">
@@ -23777,7 +22722,7 @@
       <c r="B14" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="113" t="s">
         <v>211</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -23790,8 +22735,8 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="86" t="s">
@@ -23800,7 +22745,7 @@
       <c r="B15" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="111" t="s">
         <v>220</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -23813,8 +22758,8 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127" t="s">
+      <c r="N15" s="158"/>
+      <c r="O15" s="158" t="s">
         <v>111</v>
       </c>
     </row>
@@ -23825,7 +22770,7 @@
       <c r="B16" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="110" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -23838,8 +22783,8 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="86" t="s">
@@ -23848,7 +22793,7 @@
       <c r="B17" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="110" t="s">
         <v>225</v>
       </c>
       <c r="D17" s="33" t="s">
@@ -23861,8 +22806,8 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
+      <c r="N17" s="158"/>
+      <c r="O17" s="158"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="86" t="s">
@@ -23871,7 +22816,7 @@
       <c r="B18" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="113" t="s">
         <v>228</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -23884,8 +22829,8 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="86" t="s">
@@ -23894,21 +22839,21 @@
       <c r="B19" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="107" t="s">
         <v>215</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>216</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127" t="s">
+      <c r="N19" s="158"/>
+      <c r="O19" s="158" t="s">
         <v>180</v>
       </c>
     </row>
@@ -23919,21 +22864,21 @@
       <c r="B20" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="107" t="s">
         <v>217</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>218</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="86" t="s">
@@ -23942,7 +22887,7 @@
       <c r="B21" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="107" t="s">
         <v>232</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -23953,8 +22898,8 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127" t="s">
+      <c r="N21" s="158"/>
+      <c r="O21" s="158" t="s">
         <v>193</v>
       </c>
     </row>
@@ -23965,7 +22910,7 @@
       <c r="B22" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="113" t="s">
         <v>234</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -23976,8 +22921,8 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="86" t="s">
@@ -23986,7 +22931,7 @@
       <c r="B23" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="113" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -23997,8 +22942,8 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127" t="s">
+      <c r="N23" s="158"/>
+      <c r="O23" s="158" t="s">
         <v>115</v>
       </c>
     </row>
@@ -24009,7 +22954,7 @@
       <c r="B24" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="113" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -24020,8 +22965,8 @@
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="86" t="s">
@@ -24030,7 +22975,7 @@
       <c r="B25" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="113" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="33" t="s">
@@ -24041,8 +22986,8 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="86" t="s">
@@ -24051,7 +22996,7 @@
       <c r="B26" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="134" t="s">
+      <c r="C26" s="107" t="s">
         <v>239</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -24062,8 +23007,8 @@
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127" t="s">
+      <c r="N26" s="158"/>
+      <c r="O26" s="158" t="s">
         <v>43</v>
       </c>
     </row>
@@ -24074,7 +23019,7 @@
       <c r="B27" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="107" t="s">
         <v>241</v>
       </c>
       <c r="D27" s="33" t="s">
@@ -24085,8 +23030,8 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="86" t="s">
@@ -24095,7 +23040,7 @@
       <c r="B28" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="107" t="s">
         <v>306</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -24106,8 +23051,8 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
     </row>
     <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="86" t="s">
@@ -24116,7 +23061,7 @@
       <c r="B29" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="135" t="s">
+      <c r="C29" s="108" t="s">
         <v>243</v>
       </c>
       <c r="D29" s="44" t="s">
@@ -24127,8 +23072,8 @@
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="84" t="s">
@@ -24137,7 +23082,7 @@
       <c r="B30" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="104" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="31" t="s">
@@ -24148,10 +23093,10 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="32"/>
-      <c r="N30" s="127" t="s">
+      <c r="N30" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="127" t="s">
+      <c r="O30" s="158" t="s">
         <v>127</v>
       </c>
     </row>
@@ -24162,7 +23107,7 @@
       <c r="B31" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="105" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="33" t="s">
@@ -24173,8 +23118,8 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="86" t="s">
@@ -24183,7 +23128,7 @@
       <c r="B32" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="C32" s="141" t="s">
+      <c r="C32" s="114" t="s">
         <v>249</v>
       </c>
       <c r="D32" s="33" t="s">
@@ -24194,8 +23139,8 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
     </row>
     <row r="33" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A33" s="86" t="s">
@@ -24204,7 +23149,7 @@
       <c r="B33" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="C33" s="141" t="s">
+      <c r="C33" s="114" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="33" t="s">
@@ -24215,8 +23160,8 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
     </row>
     <row r="34" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A34" s="86" t="s">
@@ -24225,7 +23170,7 @@
       <c r="B34" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="139" t="s">
+      <c r="C34" s="112" t="s">
         <v>253</v>
       </c>
       <c r="D34" s="33" t="s">
@@ -24238,8 +23183,8 @@
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="45"/>
-      <c r="N34" s="127"/>
-      <c r="O34" s="127" t="s">
+      <c r="N34" s="158"/>
+      <c r="O34" s="158" t="s">
         <v>133</v>
       </c>
     </row>
@@ -24250,7 +23195,7 @@
       <c r="B35" s="82" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="139" t="s">
+      <c r="C35" s="112" t="s">
         <v>255</v>
       </c>
       <c r="D35" s="60" t="s">
@@ -24265,8 +23210,8 @@
       <c r="K35" s="46"/>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
+      <c r="N35" s="158"/>
+      <c r="O35" s="158"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
@@ -40643,7 +39588,7 @@
       <c r="B36" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="115" t="s">
         <v>258</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -40656,7 +39601,7 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="36"/>
-      <c r="N36" s="127"/>
+      <c r="N36" s="158"/>
       <c r="O36" s="80" t="s">
         <v>139</v>
       </c>
@@ -40668,7 +39613,7 @@
       <c r="B37" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="133" t="s">
+      <c r="C37" s="106" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="55" t="s">
@@ -40679,10 +39624,10 @@
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="56"/>
-      <c r="N37" s="127" t="s">
+      <c r="N37" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="O37" s="127" t="s">
+      <c r="O37" s="158" t="s">
         <v>71</v>
       </c>
     </row>
@@ -40693,7 +39638,7 @@
       <c r="B38" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="129" t="s">
+      <c r="C38" s="102" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="33" t="s">
@@ -40704,8 +39649,8 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="34"/>
-      <c r="N38" s="127"/>
-      <c r="O38" s="127"/>
+      <c r="N38" s="158"/>
+      <c r="O38" s="158"/>
     </row>
     <row r="39" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
@@ -40714,7 +39659,7 @@
       <c r="B39" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="137" t="s">
+      <c r="C39" s="110" t="s">
         <v>281</v>
       </c>
       <c r="D39" s="33" t="s">
@@ -40725,8 +39670,8 @@
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="34"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="127" t="s">
+      <c r="N39" s="158"/>
+      <c r="O39" s="158" t="s">
         <v>280</v>
       </c>
     </row>
@@ -40737,7 +39682,7 @@
       <c r="B40" s="87" t="s">
         <v>298</v>
       </c>
-      <c r="C40" s="137" t="s">
+      <c r="C40" s="110" t="s">
         <v>283</v>
       </c>
       <c r="D40" s="33" t="s">
@@ -40748,8 +39693,8 @@
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="34"/>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127"/>
+      <c r="N40" s="158"/>
+      <c r="O40" s="158"/>
     </row>
     <row r="41" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A41" s="78" t="s">
@@ -40758,7 +39703,7 @@
       <c r="B41" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="C41" s="137" t="s">
+      <c r="C41" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="33" t="s">
@@ -40771,8 +39716,8 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="34"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="127"/>
+      <c r="N41" s="158"/>
+      <c r="O41" s="158"/>
     </row>
     <row r="42" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
@@ -40781,7 +39726,7 @@
       <c r="B42" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="C42" s="134" t="s">
+      <c r="C42" s="107" t="s">
         <v>142</v>
       </c>
       <c r="D42" s="33" t="s">
@@ -40792,8 +39737,8 @@
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="34"/>
-      <c r="N42" s="127"/>
-      <c r="O42" s="127" t="s">
+      <c r="N42" s="158"/>
+      <c r="O42" s="158" t="s">
         <v>152</v>
       </c>
     </row>
@@ -40804,7 +39749,7 @@
       <c r="B43" s="82" t="s">
         <v>299</v>
       </c>
-      <c r="C43" s="134" t="s">
+      <c r="C43" s="107" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="33" t="s">
@@ -40817,8 +39762,8 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
-      <c r="N43" s="127"/>
-      <c r="O43" s="127"/>
+      <c r="N43" s="158"/>
+      <c r="O43" s="158"/>
     </row>
     <row r="44" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
@@ -40827,7 +39772,7 @@
       <c r="B44" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="C44" s="140" t="s">
+      <c r="C44" s="113" t="s">
         <v>265</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -40840,8 +39785,8 @@
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="34"/>
-      <c r="N44" s="127"/>
-      <c r="O44" s="127" t="s">
+      <c r="N44" s="158"/>
+      <c r="O44" s="158" t="s">
         <v>154</v>
       </c>
     </row>
@@ -40852,7 +39797,7 @@
       <c r="B45" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="C45" s="140" t="s">
+      <c r="C45" s="113" t="s">
         <v>268</v>
       </c>
       <c r="D45" s="33" t="s">
@@ -40865,8 +39810,8 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="34"/>
-      <c r="N45" s="127"/>
-      <c r="O45" s="127"/>
+      <c r="N45" s="158"/>
+      <c r="O45" s="158"/>
     </row>
     <row r="46" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A46" s="92" t="s">
@@ -40875,7 +39820,7 @@
       <c r="B46" s="89" t="s">
         <v>302</v>
       </c>
-      <c r="C46" s="135" t="s">
+      <c r="C46" s="108" t="s">
         <v>303</v>
       </c>
       <c r="D46" s="44" t="s">
@@ -40888,8 +39833,8 @@
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
-      <c r="N46" s="127"/>
-      <c r="O46" s="127" t="s">
+      <c r="N46" s="158"/>
+      <c r="O46" s="158" t="s">
         <v>301</v>
       </c>
     </row>
@@ -40900,7 +39845,7 @@
       <c r="B47" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="C47" s="135" t="s">
+      <c r="C47" s="108" t="s">
         <v>304</v>
       </c>
       <c r="D47" s="44" t="s">
@@ -40913,8 +39858,8 @@
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
-      <c r="N47" s="127"/>
-      <c r="O47" s="127"/>
+      <c r="N47" s="158"/>
+      <c r="O47" s="158"/>
     </row>
     <row r="48" spans="1:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="70" t="s">
@@ -40923,7 +39868,7 @@
       <c r="B48" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="143" t="s">
+      <c r="C48" s="116" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="53" t="s">
@@ -41166,18 +40111,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="N10:N29"/>
-    <mergeCell ref="O10:O14"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="O26:O29"/>
     <mergeCell ref="N30:N36"/>
     <mergeCell ref="O30:O33"/>
     <mergeCell ref="O34:O35"/>
@@ -41187,6 +40120,18 @@
     <mergeCell ref="O42:O43"/>
     <mergeCell ref="O44:O45"/>
     <mergeCell ref="O46:O47"/>
+    <mergeCell ref="N10:N29"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41197,11 +40142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEX67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XEV67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41209,31 +40154,29 @@
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="156" customWidth="1"/>
-    <col min="6" max="6" width="5.375" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="5.375" customWidth="1"/>
-    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.375" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="7" style="124" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="124" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="124" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="124" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="124" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="124" customWidth="1"/>
+    <col min="10" max="11" width="7.125" style="124" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="144"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+    <row r="1" spans="1:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="97"/>
       <c r="E1" s="75"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
-    <row r="2" spans="1:17" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -41252,778 +40195,580 @@
       <c r="F2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="121" t="s">
         <v>309</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="121" t="s">
         <v>308</v>
       </c>
-      <c r="I2" s="148" t="s">
+      <c r="I2" s="121" t="s">
         <v>307</v>
       </c>
-      <c r="J2" s="148" t="s">
+      <c r="J2" s="121" t="s">
         <v>310</v>
       </c>
-      <c r="K2" s="148" t="s">
+      <c r="K2" s="121" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
+    <row r="3" spans="1:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="72"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="119">
+      <c r="D4" s="98"/>
+      <c r="E4" s="154" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="98"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="138"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="138"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="94"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="138"/>
+      <c r="B7" s="156" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="94"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="138"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="159"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="98"/>
+      <c r="E10" s="154" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="98"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="138"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="138"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="94"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="138"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="138"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="73" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="94"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="138"/>
+      <c r="B15" s="156" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="156" t="s">
+        <v>320</v>
+      </c>
+      <c r="F15" s="94"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="138"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="110" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="94"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="138"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="138"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="113" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="73" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="138"/>
+      <c r="B19" s="156" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="94">
         <v>1</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="P4" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="127" t="s">
-        <v>11</v>
-      </c>
+      <c r="E19" s="156" t="s">
+        <v>328</v>
+      </c>
+      <c r="F19" s="94"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="138"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="94">
+        <v>2</v>
+      </c>
+      <c r="E20" s="155"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="138"/>
+      <c r="B21" s="156" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="94">
+        <v>3</v>
+      </c>
+      <c r="E21" s="153"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="129" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127" t="s">
-        <v>275</v>
-      </c>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="138"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="113" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="156" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" s="94"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="129" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="138"/>
+      <c r="B23" s="156" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
     </row>
-    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" s="130" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="M9" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="138"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="94"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="138"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="94"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="138"/>
+      <c r="B26" s="156" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="94"/>
+      <c r="E26" s="156" t="s">
+        <v>317</v>
+      </c>
+      <c r="F26" s="94"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="138"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="94"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="138"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="N9" t="s">
-        <v>316</v>
-      </c>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="136" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="119">
+    <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="159"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" s="95"/>
+      <c r="E29" s="76" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" s="95"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="162"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="154" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="98"/>
+      <c r="E30" s="154" t="s">
+        <v>318</v>
+      </c>
+      <c r="F30" s="98"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="138"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="138"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="94"/>
+      <c r="E32" s="156" t="s">
+        <v>321</v>
+      </c>
+      <c r="F32" s="94"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+    </row>
+    <row r="33" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A33" s="138"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="94"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+    </row>
+    <row r="34" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A34" s="138"/>
+      <c r="B34" s="156" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="95">
         <v>2</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="P10" s="127" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="127" t="s">
-        <v>103</v>
-      </c>
+      <c r="E34" s="156" t="s">
+        <v>327</v>
+      </c>
+      <c r="F34" s="95"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="162"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" s="137" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="137" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="M12">
+    <row r="35" spans="1:16376" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="138"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="94">
         <v>3</v>
       </c>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" s="87" t="s">
-        <v>290</v>
-      </c>
-      <c r="C13" s="137" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="C14" s="140" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="73">
-        <v>3</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="138" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="107">
-        <v>2</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B16" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="C16" s="137" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="C17" s="137" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="C18" s="140" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="73">
-        <v>3</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="107">
-        <v>4</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="134" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B21" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="134" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B22" s="88" t="s">
-        <v>293</v>
-      </c>
-      <c r="C22" s="140" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="107">
-        <v>3</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B23" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="140" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="140" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="140" t="s">
-        <v>236</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B26" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="107">
-        <v>1</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="C27" s="134" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="C28" s="134" t="s">
-        <v>313</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B29" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="C29" s="135" t="s">
-        <v>305</v>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="76">
-        <v>3</v>
-      </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="131" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="119">
-        <v>1</v>
-      </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="P30" s="127" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q30" s="127" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="B31" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C31" s="132" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="B32" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" s="141" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="107">
-        <v>3</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-    </row>
-    <row r="33" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A33" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="B33" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C33" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-    </row>
-    <row r="34" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A34" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="B34" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="107">
-        <v>4</v>
-      </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="P34" s="127"/>
-      <c r="Q34" s="127" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16378" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="B35" s="82" t="s">
-        <v>297</v>
-      </c>
-      <c r="C35" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
       <c r="N35" s="46"/>
       <c r="O35" s="46"/>
-      <c r="P35" s="127"/>
-      <c r="Q35" s="127"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
       <c r="S35" s="46"/>
       <c r="T35" s="46"/>
@@ -58383,577 +57128,531 @@
       <c r="XET35" s="46"/>
       <c r="XEU35" s="46"/>
       <c r="XEV35" s="46"/>
-      <c r="XEW35" s="46"/>
-      <c r="XEX35" s="46"/>
     </row>
-    <row r="36" spans="1:16378" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="90" t="s">
-        <v>295</v>
-      </c>
-      <c r="B36" s="69" t="s">
+    <row r="36" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="159"/>
+      <c r="B36" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="74">
+      <c r="D36" s="100"/>
+      <c r="E36" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="F36" s="100"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+    </row>
+    <row r="37" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A37" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="154" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="96"/>
+      <c r="E37" s="154" t="s">
+        <v>319</v>
+      </c>
+      <c r="F37" s="96"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="163"/>
+      <c r="J37" s="163"/>
+      <c r="K37" s="163"/>
+    </row>
+    <row r="38" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A38" s="138"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="94"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+    </row>
+    <row r="39" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A39" s="138"/>
+      <c r="B39" s="156" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="110" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" s="94"/>
+      <c r="E39" s="156" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="94"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+    </row>
+    <row r="40" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A40" s="138"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="110" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="94"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="122"/>
+    </row>
+    <row r="41" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A41" s="138"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="110" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="94"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+    </row>
+    <row r="42" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A42" s="138"/>
+      <c r="B42" s="156" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="94">
+        <v>2</v>
+      </c>
+      <c r="E42" s="156" t="s">
+        <v>326</v>
+      </c>
+      <c r="F42" s="94"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+    </row>
+    <row r="43" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A43" s="138"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="94">
         <v>3</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="80" t="s">
-        <v>139</v>
-      </c>
+      <c r="E43" s="153"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
     </row>
-    <row r="37" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A37" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="119">
-        <v>1</v>
-      </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="P37" s="127" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q37" s="127" t="s">
-        <v>71</v>
-      </c>
+    <row r="44" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A44" s="138"/>
+      <c r="B44" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="113" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="94"/>
+      <c r="E44" s="156" t="s">
+        <v>324</v>
+      </c>
+      <c r="F44" s="94"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
     </row>
-    <row r="38" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A38" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="P38" s="127"/>
-      <c r="Q38" s="127"/>
+    <row r="45" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A45" s="138"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="94"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
     </row>
-    <row r="39" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="89" t="s">
-        <v>280</v>
-      </c>
-      <c r="C39" s="137" t="s">
-        <v>281</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="107">
-        <v>2</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="P39" s="127"/>
-      <c r="Q39" s="127" t="s">
-        <v>280</v>
-      </c>
+    <row r="46" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A46" s="138"/>
+      <c r="B46" s="156" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46" s="108" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="95"/>
+      <c r="E46" s="156" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" s="95"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="162"/>
+      <c r="K46" s="162"/>
     </row>
-    <row r="40" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A40" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="87" t="s">
-        <v>298</v>
-      </c>
-      <c r="C40" s="137" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="127"/>
+    <row r="47" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="159"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="108" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="95"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="162"/>
+      <c r="K47" s="162"/>
     </row>
-    <row r="41" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A41" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="88" t="s">
-        <v>298</v>
-      </c>
-      <c r="C41" s="137" t="s">
-        <v>282</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="P41" s="127"/>
-      <c r="Q41" s="127"/>
-    </row>
-    <row r="42" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="82" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="134" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="107">
-        <v>4</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="P42" s="127"/>
-      <c r="Q42" s="127" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A43" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="82" t="s">
-        <v>299</v>
-      </c>
-      <c r="C43" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="P43" s="127"/>
-      <c r="Q43" s="127"/>
-    </row>
-    <row r="44" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A44" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="107">
-        <v>3</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="P44" s="127"/>
-      <c r="Q44" s="127" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="87" t="s">
-        <v>300</v>
-      </c>
-      <c r="C45" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="P45" s="127"/>
-      <c r="Q45" s="127"/>
-    </row>
-    <row r="46" spans="1:16378" x14ac:dyDescent="0.3">
-      <c r="A46" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="89" t="s">
-        <v>302</v>
-      </c>
-      <c r="C46" s="135" t="s">
-        <v>303</v>
-      </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="107">
-        <v>3</v>
-      </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="151"/>
-      <c r="P46" s="127"/>
-      <c r="Q46" s="127" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16378" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="93" t="s">
-        <v>302</v>
-      </c>
-      <c r="C47" s="135" t="s">
-        <v>304</v>
-      </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="151"/>
-      <c r="P47" s="127"/>
-      <c r="Q47" s="127"/>
-    </row>
-    <row r="48" spans="1:16378" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="70" t="s">
         <v>68</v>
       </c>
       <c r="B48" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="143" t="s">
+      <c r="C48" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="52">
-        <v>1</v>
-      </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="154"/>
-      <c r="K48" s="154"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" s="52"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="164"/>
       <c r="L48" s="48"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="46"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="46"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
       <c r="L49" s="48"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="46"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
       <c r="L50" s="48"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="46"/>
       <c r="B51" s="46"/>
       <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="46"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
       <c r="L51" s="48"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="46"/>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
+      <c r="D52" s="46"/>
       <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
       <c r="L52" s="48"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="46"/>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
+      <c r="D53" s="46"/>
       <c r="E53" s="46"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
       <c r="L53" s="48"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="46"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
-      <c r="D54" s="47"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="46"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
       <c r="L54" s="48"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="46"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46"/>
-      <c r="D55" s="47"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="46"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
       <c r="L55" s="48"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="46"/>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
-      <c r="D56" s="47"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="46"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
       <c r="L56" s="48"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="46"/>
       <c r="B57" s="46"/>
       <c r="C57" s="46"/>
-      <c r="D57" s="47"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
       <c r="L57" s="48"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="46"/>
       <c r="B58" s="46"/>
       <c r="C58" s="46"/>
-      <c r="D58" s="47"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="46"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
       <c r="L58" s="48"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="46"/>
       <c r="B59" s="46"/>
       <c r="C59" s="46"/>
-      <c r="D59" s="47"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="46"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
       <c r="L59" s="48"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="46"/>
       <c r="B60" s="46"/>
       <c r="C60" s="46"/>
-      <c r="D60" s="47"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="46"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
       <c r="L60" s="48"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="46"/>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="47"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="46"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
       <c r="L61" s="48"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="46"/>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
-      <c r="D62" s="47"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="46"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
       <c r="L62" s="48"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="123"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="123"/>
+      <c r="I63" s="123"/>
+      <c r="J63" s="123"/>
+      <c r="K63" s="123"/>
       <c r="L63" s="48"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="155"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="123"/>
+      <c r="H64" s="123"/>
+      <c r="I64" s="123"/>
+      <c r="J64" s="123"/>
+      <c r="K64" s="123"/>
       <c r="L64" s="48"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="48"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="123"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="123"/>
+      <c r="H65" s="123"/>
+      <c r="I65" s="123"/>
+      <c r="J65" s="123"/>
+      <c r="K65" s="123"/>
       <c r="L65" s="48"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="155"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="123"/>
+      <c r="K66" s="123"/>
       <c r="L66" s="48"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="155"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="123"/>
+      <c r="F67" s="123"/>
+      <c r="G67" s="123"/>
+      <c r="H67" s="123"/>
+      <c r="I67" s="123"/>
+      <c r="J67" s="123"/>
+      <c r="K67" s="123"/>
       <c r="L67" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A29"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E25"/>
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="E26:E28"/>
@@ -58963,35 +57662,9 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="E42:E43"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="P30:P36"/>
-    <mergeCell ref="Q30:Q33"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="P37:P47"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="P4:P9"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="P10:P29"/>
-    <mergeCell ref="Q10:Q14"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/WebContent/발표/3조 5차 요구사항정의서_hsw.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서_hsw.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2332,10 +2332,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2344,19 +2356,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2368,10 +2374,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2386,70 +2440,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2493,7 +2493,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1160"/>
+                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1198"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2552,7 +2552,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1161"/>
+                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1199"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2611,7 +2611,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1162"/>
+                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1200"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2670,7 +2670,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1163"/>
+                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1201"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2729,7 +2729,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1164"/>
+                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1202"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2788,7 +2788,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1165"/>
+                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1203"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2847,7 +2847,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1166"/>
+                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1204"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2906,7 +2906,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1167"/>
+                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1205"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2965,7 +2965,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1168"/>
+                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1206"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3024,7 +3024,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1169"/>
+                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1207"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3083,7 +3083,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1170"/>
+                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1208"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3142,7 +3142,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1171"/>
+                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1209"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3201,7 +3201,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1172"/>
+                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1210"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3260,7 +3260,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1173"/>
+                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1211"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3319,7 +3319,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1174"/>
+                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1212"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3378,7 +3378,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1175"/>
+                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1213"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3437,7 +3437,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1176"/>
+                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1214"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3496,7 +3496,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1177"/>
+                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1215"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3555,7 +3555,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1178"/>
+                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1216"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3941,10 +3941,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="133" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -3961,8 +3961,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="135"/>
-      <c r="C4" s="126"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -3977,8 +3977,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="135"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -3993,8 +3993,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="135"/>
-      <c r="C6" s="125" t="s">
+      <c r="B6" s="137"/>
+      <c r="C6" s="133" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4011,8 +4011,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="135"/>
-      <c r="C7" s="126"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4027,8 +4027,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="136"/>
-      <c r="C8" s="129"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4045,10 +4045,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="133" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4065,8 +4065,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="127"/>
-      <c r="C10" s="129"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4081,11 +4081,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="127"/>
-      <c r="C11" s="125" t="s">
+      <c r="B11" s="131"/>
+      <c r="C11" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="139" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4099,9 +4099,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="127"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="132"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4113,8 +4113,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="127"/>
-      <c r="C13" s="126"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4129,8 +4129,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="127"/>
-      <c r="C14" s="126"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4145,8 +4145,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="127"/>
-      <c r="C15" s="129"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4163,8 +4163,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="127"/>
-      <c r="C16" s="125" t="s">
+      <c r="B16" s="131"/>
+      <c r="C16" s="133" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4181,8 +4181,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="127"/>
-      <c r="C17" s="126"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4197,8 +4197,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="127"/>
-      <c r="C18" s="126"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4213,8 +4213,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4229,10 +4229,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="133" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4249,8 +4249,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="127"/>
-      <c r="C21" s="126"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4265,8 +4265,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="127"/>
-      <c r="C22" s="129"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="135"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="127"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4299,10 +4299,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="133" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4319,8 +4319,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="127"/>
-      <c r="C25" s="126"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4335,8 +4335,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="127"/>
-      <c r="C26" s="129"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="127"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -4369,7 +4369,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="128"/>
+      <c r="B28" s="132"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -4407,10 +4407,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="130" t="s">
+      <c r="C30" s="139" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -4427,8 +4427,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="126"/>
-      <c r="C31" s="131"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="141"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -4443,8 +4443,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="127"/>
-      <c r="C32" s="125" t="s">
+      <c r="B32" s="131"/>
+      <c r="C32" s="133" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -4461,8 +4461,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="127"/>
-      <c r="C33" s="129"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="135"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -4477,8 +4477,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="127"/>
-      <c r="C34" s="125" t="s">
+      <c r="B34" s="131"/>
+      <c r="C34" s="133" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -4495,8 +4495,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="127"/>
-      <c r="C35" s="126"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -4509,8 +4509,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="127"/>
-      <c r="C36" s="126"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -4525,8 +4525,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="127"/>
-      <c r="C37" s="126"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -4541,8 +4541,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="127"/>
-      <c r="C38" s="129"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="135"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -4557,8 +4557,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="127"/>
-      <c r="C39" s="125" t="s">
+      <c r="B39" s="131"/>
+      <c r="C39" s="133" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -4575,8 +4575,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="127"/>
-      <c r="C40" s="126"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -4591,8 +4591,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="127"/>
-      <c r="C41" s="126"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="134"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -4607,8 +4607,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="127"/>
-      <c r="C42" s="126"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -4623,8 +4623,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="127"/>
-      <c r="C43" s="129"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="135"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -4639,8 +4639,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="127"/>
-      <c r="C44" s="125" t="s">
+      <c r="B44" s="131"/>
+      <c r="C44" s="133" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -4657,8 +4657,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="127"/>
-      <c r="C45" s="129"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="135"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -4673,8 +4673,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="127"/>
-      <c r="C46" s="125" t="s">
+      <c r="B46" s="131"/>
+      <c r="C46" s="133" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -4691,8 +4691,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="127"/>
-      <c r="C47" s="129"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="135"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -4707,8 +4707,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="127"/>
-      <c r="C48" s="125" t="s">
+      <c r="B48" s="131"/>
+      <c r="C48" s="133" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -4725,8 +4725,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="128"/>
-      <c r="C49" s="129"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="135"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -4742,18 +4742,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -4762,6 +4750,18 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4791,15 +4791,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="148"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="150"/>
+      <c r="A1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="148"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -4831,21 +4831,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="159"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="154" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -4861,8 +4861,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="143"/>
-      <c r="B5" s="146"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -4876,8 +4876,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="143"/>
-      <c r="B6" s="146"/>
+      <c r="A6" s="152"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -4891,8 +4891,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="143"/>
-      <c r="B7" s="146" t="s">
+      <c r="A7" s="152"/>
+      <c r="B7" s="142" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -4908,8 +4908,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="143"/>
-      <c r="B8" s="146"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -4923,8 +4923,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="144"/>
-      <c r="B9" s="147"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -4938,10 +4938,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="155" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -4957,8 +4957,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="138"/>
-      <c r="B11" s="155"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -4972,8 +4972,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="138"/>
-      <c r="B12" s="155"/>
+      <c r="A12" s="150"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -4987,8 +4987,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="138"/>
-      <c r="B13" s="153"/>
+      <c r="A13" s="150"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5004,8 +5004,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="138"/>
-      <c r="B14" s="156" t="s">
+      <c r="A14" s="150"/>
+      <c r="B14" s="143" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5021,8 +5021,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="138"/>
-      <c r="B15" s="155"/>
+      <c r="A15" s="150"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5036,8 +5036,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="138"/>
-      <c r="B16" s="156" t="s">
+      <c r="A16" s="150"/>
+      <c r="B16" s="143" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5053,8 +5053,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="138"/>
-      <c r="B17" s="155"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5068,8 +5068,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="138"/>
-      <c r="B18" s="155"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5085,8 +5085,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="138"/>
-      <c r="B19" s="153"/>
+      <c r="A19" s="150"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5100,8 +5100,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="138"/>
-      <c r="B20" s="156" t="s">
+      <c r="A20" s="150"/>
+      <c r="B20" s="143" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5117,8 +5117,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="138"/>
-      <c r="B21" s="153"/>
+      <c r="A21" s="150"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5132,8 +5132,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="138"/>
-      <c r="B22" s="156" t="s">
+      <c r="A22" s="150"/>
+      <c r="B22" s="143" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5149,8 +5149,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="138"/>
-      <c r="B23" s="155"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5164,8 +5164,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="138"/>
-      <c r="B24" s="155"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5179,8 +5179,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="138"/>
-      <c r="B25" s="153"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5194,8 +5194,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="138"/>
-      <c r="B26" s="156" t="s">
+      <c r="A26" s="150"/>
+      <c r="B26" s="143" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5211,8 +5211,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="138"/>
-      <c r="B27" s="155"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5226,8 +5226,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="138"/>
-      <c r="B28" s="155"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="144"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5241,8 +5241,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="138"/>
-      <c r="B29" s="155"/>
+      <c r="A29" s="150"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5256,10 +5256,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="137" t="s">
+      <c r="A30" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="154" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5275,8 +5275,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="138"/>
-      <c r="B31" s="146"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="142"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5290,8 +5290,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="138"/>
-      <c r="B32" s="146"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="142"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5305,8 +5305,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="138"/>
-      <c r="B33" s="146"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="142"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5320,8 +5320,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="138"/>
-      <c r="B34" s="146" t="s">
+      <c r="A34" s="150"/>
+      <c r="B34" s="142" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5337,8 +5337,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="138"/>
-      <c r="B35" s="146"/>
+      <c r="A35" s="150"/>
+      <c r="B35" s="142"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -21727,8 +21727,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="138"/>
-      <c r="B36" s="146"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="142"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -21740,8 +21740,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="138"/>
-      <c r="B37" s="146" t="s">
+      <c r="A37" s="150"/>
+      <c r="B37" s="142" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -21757,8 +21757,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="138"/>
-      <c r="B38" s="146"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="142"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -21772,7 +21772,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="138"/>
+      <c r="A39" s="150"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -21792,7 +21792,7 @@
       <c r="A40" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="145" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -21808,8 +21808,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="143"/>
-      <c r="B41" s="146"/>
+      <c r="A41" s="152"/>
+      <c r="B41" s="142"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -21823,8 +21823,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="143"/>
-      <c r="B42" s="146" t="s">
+      <c r="A42" s="152"/>
+      <c r="B42" s="142" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -21840,8 +21840,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="143"/>
-      <c r="B43" s="146"/>
+      <c r="A43" s="152"/>
+      <c r="B43" s="142"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -21855,11 +21855,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="143"/>
-      <c r="B44" s="146" t="s">
+      <c r="A44" s="152"/>
+      <c r="B44" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="156" t="s">
+      <c r="C44" s="143" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -21872,9 +21872,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="143"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="153"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="145"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -21885,8 +21885,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="143"/>
-      <c r="B46" s="146"/>
+      <c r="A46" s="152"/>
+      <c r="B46" s="142"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -21900,8 +21900,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="143"/>
-      <c r="B47" s="146"/>
+      <c r="A47" s="152"/>
+      <c r="B47" s="142"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -21915,8 +21915,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="143"/>
-      <c r="B48" s="146"/>
+      <c r="A48" s="152"/>
+      <c r="B48" s="142"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -21930,8 +21930,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="143"/>
-      <c r="B49" s="146" t="s">
+      <c r="A49" s="152"/>
+      <c r="B49" s="142" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -21947,8 +21947,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="143"/>
-      <c r="B50" s="146"/>
+      <c r="A50" s="152"/>
+      <c r="B50" s="142"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -21962,8 +21962,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="143"/>
-      <c r="B51" s="146"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="142"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -21977,8 +21977,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="143"/>
-      <c r="B52" s="146"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="142"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -21992,8 +21992,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="143"/>
-      <c r="B53" s="156" t="s">
+      <c r="A53" s="152"/>
+      <c r="B53" s="143" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22009,8 +22009,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="143"/>
-      <c r="B54" s="155"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="144"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22024,8 +22024,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="143"/>
-      <c r="B55" s="146" t="s">
+      <c r="A55" s="152"/>
+      <c r="B55" s="142" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22041,8 +22041,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="143"/>
-      <c r="B56" s="146"/>
+      <c r="A56" s="152"/>
+      <c r="B56" s="142"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22056,8 +22056,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="143"/>
-      <c r="B57" s="156" t="s">
+      <c r="A57" s="152"/>
+      <c r="B57" s="143" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22073,8 +22073,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="152"/>
-      <c r="B58" s="153"/>
+      <c r="A58" s="153"/>
+      <c r="B58" s="145"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22088,8 +22088,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="152"/>
-      <c r="B59" s="156" t="s">
+      <c r="A59" s="153"/>
+      <c r="B59" s="143" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22105,8 +22105,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="152"/>
-      <c r="B60" s="157"/>
+      <c r="A60" s="153"/>
+      <c r="B60" s="156"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -22369,11 +22369,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -22390,11 +22390,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22419,8 +22419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22439,15 +22439,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="148"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="150"/>
+      <c r="A1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="148"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -22479,15 +22479,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="159"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
@@ -22507,10 +22507,10 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="N4" s="158" t="s">
+      <c r="N4" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="158" t="s">
+      <c r="O4" s="163" t="s">
         <v>11</v>
       </c>
     </row>
@@ -22532,8 +22532,8 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
@@ -22553,8 +22553,8 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
@@ -22574,8 +22574,8 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158" t="s">
+      <c r="N7" s="163"/>
+      <c r="O7" s="163" t="s">
         <v>275</v>
       </c>
     </row>
@@ -22597,8 +22597,8 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="79" t="s">
@@ -22618,8 +22618,8 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="84" t="s">
@@ -22641,10 +22641,10 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
-      <c r="N10" s="158" t="s">
+      <c r="N10" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="158" t="s">
+      <c r="O10" s="163" t="s">
         <v>103</v>
       </c>
     </row>
@@ -22668,8 +22668,8 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="163"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="86" t="s">
@@ -22691,8 +22691,8 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
@@ -22712,8 +22712,8 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="163"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="86" t="s">
@@ -22735,8 +22735,8 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="163"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="86" t="s">
@@ -22758,8 +22758,8 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158" t="s">
+      <c r="N15" s="163"/>
+      <c r="O15" s="163" t="s">
         <v>111</v>
       </c>
     </row>
@@ -22783,8 +22783,8 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="86" t="s">
@@ -22806,8 +22806,8 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="158"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="86" t="s">
@@ -22829,8 +22829,8 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="86" t="s">
@@ -22852,8 +22852,8 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158" t="s">
+      <c r="N19" s="163"/>
+      <c r="O19" s="163" t="s">
         <v>180</v>
       </c>
     </row>
@@ -22877,8 +22877,8 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="163"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="86" t="s">
@@ -22898,8 +22898,8 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158" t="s">
+      <c r="N21" s="163"/>
+      <c r="O21" s="163" t="s">
         <v>193</v>
       </c>
     </row>
@@ -22921,8 +22921,8 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="86" t="s">
@@ -22942,8 +22942,8 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158" t="s">
+      <c r="N23" s="163"/>
+      <c r="O23" s="163" t="s">
         <v>115</v>
       </c>
     </row>
@@ -22965,8 +22965,8 @@
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="86" t="s">
@@ -22986,8 +22986,8 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="86" t="s">
@@ -23007,8 +23007,8 @@
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158" t="s">
+      <c r="N26" s="163"/>
+      <c r="O26" s="163" t="s">
         <v>43</v>
       </c>
     </row>
@@ -23030,8 +23030,8 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="86" t="s">
@@ -23051,8 +23051,8 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="163"/>
     </row>
     <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="86" t="s">
@@ -23072,8 +23072,8 @@
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="163"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="84" t="s">
@@ -23093,10 +23093,10 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="32"/>
-      <c r="N30" s="158" t="s">
+      <c r="N30" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="158" t="s">
+      <c r="O30" s="163" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23118,8 +23118,8 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="86" t="s">
@@ -23139,8 +23139,8 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
     </row>
     <row r="33" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A33" s="86" t="s">
@@ -23160,8 +23160,8 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
     </row>
     <row r="34" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A34" s="86" t="s">
@@ -23183,8 +23183,8 @@
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="45"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="158" t="s">
+      <c r="N34" s="163"/>
+      <c r="O34" s="163" t="s">
         <v>133</v>
       </c>
     </row>
@@ -23210,8 +23210,8 @@
       <c r="K35" s="46"/>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="158"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="163"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
@@ -39601,7 +39601,7 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="36"/>
-      <c r="N36" s="158"/>
+      <c r="N36" s="163"/>
       <c r="O36" s="80" t="s">
         <v>139</v>
       </c>
@@ -39624,10 +39624,10 @@
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="56"/>
-      <c r="N37" s="158" t="s">
+      <c r="N37" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="O37" s="158" t="s">
+      <c r="O37" s="163" t="s">
         <v>71</v>
       </c>
     </row>
@@ -39649,8 +39649,8 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="34"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="158"/>
+      <c r="N38" s="163"/>
+      <c r="O38" s="163"/>
     </row>
     <row r="39" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
@@ -39670,8 +39670,8 @@
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="34"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="158" t="s">
+      <c r="N39" s="163"/>
+      <c r="O39" s="163" t="s">
         <v>280</v>
       </c>
     </row>
@@ -39693,8 +39693,8 @@
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="34"/>
-      <c r="N40" s="158"/>
-      <c r="O40" s="158"/>
+      <c r="N40" s="163"/>
+      <c r="O40" s="163"/>
     </row>
     <row r="41" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A41" s="78" t="s">
@@ -39716,8 +39716,8 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="34"/>
-      <c r="N41" s="158"/>
-      <c r="O41" s="158"/>
+      <c r="N41" s="163"/>
+      <c r="O41" s="163"/>
     </row>
     <row r="42" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
@@ -39737,8 +39737,8 @@
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="34"/>
-      <c r="N42" s="158"/>
-      <c r="O42" s="158" t="s">
+      <c r="N42" s="163"/>
+      <c r="O42" s="163" t="s">
         <v>152</v>
       </c>
     </row>
@@ -39762,8 +39762,8 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
-      <c r="N43" s="158"/>
-      <c r="O43" s="158"/>
+      <c r="N43" s="163"/>
+      <c r="O43" s="163"/>
     </row>
     <row r="44" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A44" s="78" t="s">
@@ -39785,8 +39785,8 @@
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="34"/>
-      <c r="N44" s="158"/>
-      <c r="O44" s="158" t="s">
+      <c r="N44" s="163"/>
+      <c r="O44" s="163" t="s">
         <v>154</v>
       </c>
     </row>
@@ -39810,8 +39810,8 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="34"/>
-      <c r="N45" s="158"/>
-      <c r="O45" s="158"/>
+      <c r="N45" s="163"/>
+      <c r="O45" s="163"/>
     </row>
     <row r="46" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A46" s="92" t="s">
@@ -39833,8 +39833,8 @@
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
-      <c r="N46" s="158"/>
-      <c r="O46" s="158" t="s">
+      <c r="N46" s="163"/>
+      <c r="O46" s="163" t="s">
         <v>301</v>
       </c>
     </row>
@@ -39858,8 +39858,8 @@
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
-      <c r="N47" s="158"/>
-      <c r="O47" s="158"/>
+      <c r="N47" s="163"/>
+      <c r="O47" s="163"/>
     </row>
     <row r="48" spans="1:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="70" t="s">
@@ -40111,6 +40111,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="N10:N29"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="O26:O29"/>
     <mergeCell ref="N30:N36"/>
     <mergeCell ref="O30:O33"/>
     <mergeCell ref="O34:O35"/>
@@ -40120,18 +40132,6 @@
     <mergeCell ref="O42:O43"/>
     <mergeCell ref="O44:O45"/>
     <mergeCell ref="O46:O47"/>
-    <mergeCell ref="N10:N29"/>
-    <mergeCell ref="O10:O14"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40145,8 +40145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40225,34 +40225,34 @@
       <c r="K3" s="99"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="155" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="101" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="98"/>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="155" t="s">
         <v>316</v>
       </c>
       <c r="F4" s="98"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="138"/>
-      <c r="B5" s="155"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="94"/>
-      <c r="E5" s="155"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="94"/>
       <c r="G5" s="122"/>
       <c r="H5" s="122"/>
@@ -40261,13 +40261,13 @@
       <c r="K5" s="122"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="138"/>
-      <c r="B6" s="153"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="102" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="94"/>
-      <c r="E6" s="155"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="94"/>
       <c r="G6" s="122"/>
       <c r="H6" s="122"/>
@@ -40276,15 +40276,15 @@
       <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="138"/>
-      <c r="B7" s="156" t="s">
+      <c r="A7" s="150"/>
+      <c r="B7" s="143" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="102" t="s">
         <v>277</v>
       </c>
       <c r="D7" s="94"/>
-      <c r="E7" s="155"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="94"/>
       <c r="G7" s="122"/>
       <c r="H7" s="122"/>
@@ -40293,13 +40293,13 @@
       <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="138"/>
-      <c r="B8" s="155"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="102" t="s">
         <v>276</v>
       </c>
       <c r="D8" s="94"/>
-      <c r="E8" s="155"/>
+      <c r="E8" s="144"/>
       <c r="F8" s="94"/>
       <c r="G8" s="122"/>
       <c r="H8" s="122"/>
@@ -40308,49 +40308,53 @@
       <c r="K8" s="122"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="159"/>
-      <c r="B9" s="157"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="103" t="s">
         <v>275</v>
       </c>
       <c r="D9" s="100"/>
-      <c r="E9" s="157"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="100"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="155" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="154" t="s">
+      <c r="D10" s="98">
+        <v>2</v>
+      </c>
+      <c r="E10" s="155" t="s">
         <v>320</v>
       </c>
       <c r="F10" s="98"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="160"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="138"/>
-      <c r="B11" s="155"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="155"/>
+      <c r="D11" s="94">
+        <v>1</v>
+      </c>
+      <c r="E11" s="144"/>
       <c r="F11" s="94"/>
       <c r="G11" s="122"/>
       <c r="H11" s="122"/>
@@ -40359,13 +40363,15 @@
       <c r="K11" s="122"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="138"/>
-      <c r="B12" s="155"/>
+      <c r="A12" s="150"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="155"/>
+      <c r="D12" s="94">
+        <v>1</v>
+      </c>
+      <c r="E12" s="144"/>
       <c r="F12" s="94"/>
       <c r="G12" s="122"/>
       <c r="H12" s="122"/>
@@ -40374,13 +40380,15 @@
       <c r="K12" s="122"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="138"/>
-      <c r="B13" s="155"/>
+      <c r="A13" s="150"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="153"/>
+      <c r="D13" s="94">
+        <v>2</v>
+      </c>
+      <c r="E13" s="145"/>
       <c r="F13" s="94"/>
       <c r="G13" s="122"/>
       <c r="H13" s="122"/>
@@ -40389,8 +40397,8 @@
       <c r="K13" s="122"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="138"/>
-      <c r="B14" s="153"/>
+      <c r="A14" s="150"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="113" t="s">
         <v>211</v>
       </c>
@@ -40406,15 +40414,17 @@
       <c r="K14" s="122"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="138"/>
-      <c r="B15" s="156" t="s">
+      <c r="A15" s="150"/>
+      <c r="B15" s="143" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="156" t="s">
+      <c r="D15" s="94">
+        <v>2</v>
+      </c>
+      <c r="E15" s="143" t="s">
         <v>320</v>
       </c>
       <c r="F15" s="94"/>
@@ -40425,13 +40435,15 @@
       <c r="K15" s="122"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="138"/>
-      <c r="B16" s="155"/>
+      <c r="A16" s="150"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="110" t="s">
         <v>223</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="155"/>
+      <c r="D16" s="94">
+        <v>1</v>
+      </c>
+      <c r="E16" s="144"/>
       <c r="F16" s="94"/>
       <c r="G16" s="122"/>
       <c r="H16" s="122"/>
@@ -40440,13 +40452,15 @@
       <c r="K16" s="122"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="138"/>
-      <c r="B17" s="155"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="153"/>
+      <c r="D17" s="94">
+        <v>1</v>
+      </c>
+      <c r="E17" s="145"/>
       <c r="F17" s="94"/>
       <c r="G17" s="122"/>
       <c r="H17" s="122"/>
@@ -40455,8 +40469,8 @@
       <c r="K17" s="122"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="138"/>
-      <c r="B18" s="153"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="113" t="s">
         <v>228</v>
       </c>
@@ -40472,8 +40486,8 @@
       <c r="K18" s="122"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="138"/>
-      <c r="B19" s="156" t="s">
+      <c r="A19" s="150"/>
+      <c r="B19" s="143" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="107" t="s">
@@ -40482,7 +40496,7 @@
       <c r="D19" s="94">
         <v>1</v>
       </c>
-      <c r="E19" s="156" t="s">
+      <c r="E19" s="143" t="s">
         <v>328</v>
       </c>
       <c r="F19" s="94"/>
@@ -40493,15 +40507,15 @@
       <c r="K19" s="122"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="138"/>
-      <c r="B20" s="153"/>
+      <c r="A20" s="150"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="107" t="s">
         <v>184</v>
       </c>
       <c r="D20" s="94">
         <v>2</v>
       </c>
-      <c r="E20" s="155"/>
+      <c r="E20" s="144"/>
       <c r="F20" s="94"/>
       <c r="G20" s="122"/>
       <c r="H20" s="122"/>
@@ -40510,8 +40524,8 @@
       <c r="K20" s="122"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="138"/>
-      <c r="B21" s="156" t="s">
+      <c r="A21" s="150"/>
+      <c r="B21" s="143" t="s">
         <v>193</v>
       </c>
       <c r="C21" s="107" t="s">
@@ -40520,7 +40534,7 @@
       <c r="D21" s="94">
         <v>3</v>
       </c>
-      <c r="E21" s="153"/>
+      <c r="E21" s="145"/>
       <c r="F21" s="94"/>
       <c r="G21" s="122"/>
       <c r="H21" s="122"/>
@@ -40529,13 +40543,13 @@
       <c r="K21" s="122"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="138"/>
-      <c r="B22" s="153"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="113" t="s">
         <v>194</v>
       </c>
       <c r="D22" s="94"/>
-      <c r="E22" s="156" t="s">
+      <c r="E22" s="143" t="s">
         <v>322</v>
       </c>
       <c r="F22" s="94"/>
@@ -40546,15 +40560,15 @@
       <c r="K22" s="122"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="138"/>
-      <c r="B23" s="156" t="s">
+      <c r="A23" s="150"/>
+      <c r="B23" s="143" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="113" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="94"/>
-      <c r="E23" s="155"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="94"/>
       <c r="G23" s="122"/>
       <c r="H23" s="122"/>
@@ -40563,13 +40577,13 @@
       <c r="K23" s="122"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="138"/>
-      <c r="B24" s="155"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="113" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="94"/>
-      <c r="E24" s="155"/>
+      <c r="E24" s="144"/>
       <c r="F24" s="94"/>
       <c r="G24" s="122"/>
       <c r="H24" s="122"/>
@@ -40578,13 +40592,13 @@
       <c r="K24" s="122"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="138"/>
-      <c r="B25" s="153"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="113" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="94"/>
-      <c r="E25" s="153"/>
+      <c r="E25" s="145"/>
       <c r="F25" s="94"/>
       <c r="G25" s="122"/>
       <c r="H25" s="122"/>
@@ -40593,15 +40607,15 @@
       <c r="K25" s="122"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="138"/>
-      <c r="B26" s="156" t="s">
+      <c r="A26" s="150"/>
+      <c r="B26" s="143" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="94"/>
-      <c r="E26" s="156" t="s">
+      <c r="E26" s="143" t="s">
         <v>317</v>
       </c>
       <c r="F26" s="94"/>
@@ -40612,13 +40626,13 @@
       <c r="K26" s="122"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="138"/>
-      <c r="B27" s="155"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="107" t="s">
         <v>178</v>
       </c>
       <c r="D27" s="94"/>
-      <c r="E27" s="155"/>
+      <c r="E27" s="144"/>
       <c r="F27" s="94"/>
       <c r="G27" s="122"/>
       <c r="H27" s="122"/>
@@ -40627,13 +40641,13 @@
       <c r="K27" s="122"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="138"/>
-      <c r="B28" s="155"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="144"/>
       <c r="C28" s="107" t="s">
         <v>312</v>
       </c>
       <c r="D28" s="94"/>
-      <c r="E28" s="155"/>
+      <c r="E28" s="144"/>
       <c r="F28" s="94"/>
       <c r="G28" s="122"/>
       <c r="H28" s="122"/>
@@ -40642,8 +40656,8 @@
       <c r="K28" s="122"/>
     </row>
     <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="159"/>
-      <c r="B29" s="157"/>
+      <c r="A29" s="164"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="108" t="s">
         <v>305</v>
       </c>
@@ -40652,41 +40666,41 @@
         <v>322</v>
       </c>
       <c r="F29" s="95"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="162"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="137" t="s">
+      <c r="A30" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="155" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="104" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="98"/>
-      <c r="E30" s="154" t="s">
+      <c r="E30" s="155" t="s">
         <v>318</v>
       </c>
       <c r="F30" s="98"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="160"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="138"/>
-      <c r="B31" s="155"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="105" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="94"/>
-      <c r="E31" s="153"/>
+      <c r="E31" s="145"/>
       <c r="F31" s="94"/>
       <c r="G31" s="122"/>
       <c r="H31" s="122"/>
@@ -40695,13 +40709,13 @@
       <c r="K31" s="122"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="138"/>
-      <c r="B32" s="155"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="144"/>
       <c r="C32" s="114" t="s">
         <v>132</v>
       </c>
       <c r="D32" s="94"/>
-      <c r="E32" s="156" t="s">
+      <c r="E32" s="143" t="s">
         <v>321</v>
       </c>
       <c r="F32" s="94"/>
@@ -40712,13 +40726,13 @@
       <c r="K32" s="122"/>
     </row>
     <row r="33" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A33" s="138"/>
-      <c r="B33" s="153"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="114" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="94"/>
-      <c r="E33" s="153"/>
+      <c r="E33" s="145"/>
       <c r="F33" s="94"/>
       <c r="G33" s="122"/>
       <c r="H33" s="122"/>
@@ -40727,8 +40741,8 @@
       <c r="K33" s="122"/>
     </row>
     <row r="34" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A34" s="138"/>
-      <c r="B34" s="156" t="s">
+      <c r="A34" s="150"/>
+      <c r="B34" s="143" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="112" t="s">
@@ -40737,26 +40751,26 @@
       <c r="D34" s="95">
         <v>2</v>
       </c>
-      <c r="E34" s="156" t="s">
+      <c r="E34" s="143" t="s">
         <v>327</v>
       </c>
       <c r="F34" s="95"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="162"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
     </row>
     <row r="35" spans="1:16376" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="138"/>
-      <c r="B35" s="153"/>
+      <c r="A35" s="150"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="112" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="94">
         <v>3</v>
       </c>
-      <c r="E35" s="153"/>
+      <c r="E35" s="145"/>
       <c r="F35" s="94"/>
       <c r="G35" s="122"/>
       <c r="H35" s="122"/>
@@ -57130,7 +57144,7 @@
       <c r="XEV35" s="46"/>
     </row>
     <row r="36" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="159"/>
+      <c r="A36" s="164"/>
       <c r="B36" s="100" t="s">
         <v>139</v>
       </c>
@@ -57142,41 +57156,41 @@
         <v>323</v>
       </c>
       <c r="F36" s="100"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
     </row>
     <row r="37" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A37" s="137" t="s">
+      <c r="A37" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="154" t="s">
+      <c r="B37" s="155" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="106" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="96"/>
-      <c r="E37" s="154" t="s">
+      <c r="E37" s="155" t="s">
         <v>319</v>
       </c>
       <c r="F37" s="96"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="163"/>
-      <c r="J37" s="163"/>
-      <c r="K37" s="163"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
     </row>
     <row r="38" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A38" s="138"/>
-      <c r="B38" s="153"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="102" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="94"/>
-      <c r="E38" s="153"/>
+      <c r="E38" s="145"/>
       <c r="F38" s="94"/>
       <c r="G38" s="122"/>
       <c r="H38" s="122"/>
@@ -57185,15 +57199,17 @@
       <c r="K38" s="122"/>
     </row>
     <row r="39" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A39" s="138"/>
-      <c r="B39" s="156" t="s">
+      <c r="A39" s="150"/>
+      <c r="B39" s="143" t="s">
         <v>280</v>
       </c>
       <c r="C39" s="110" t="s">
         <v>281</v>
       </c>
-      <c r="D39" s="94"/>
-      <c r="E39" s="156" t="s">
+      <c r="D39" s="94">
+        <v>1</v>
+      </c>
+      <c r="E39" s="143" t="s">
         <v>320</v>
       </c>
       <c r="F39" s="94"/>
@@ -57204,13 +57220,15 @@
       <c r="K39" s="122"/>
     </row>
     <row r="40" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A40" s="138"/>
-      <c r="B40" s="155"/>
+      <c r="A40" s="150"/>
+      <c r="B40" s="144"/>
       <c r="C40" s="110" t="s">
         <v>283</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="155"/>
+      <c r="D40" s="94">
+        <v>1</v>
+      </c>
+      <c r="E40" s="144"/>
       <c r="F40" s="94"/>
       <c r="G40" s="122"/>
       <c r="H40" s="122"/>
@@ -57219,13 +57237,15 @@
       <c r="K40" s="122"/>
     </row>
     <row r="41" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A41" s="138"/>
-      <c r="B41" s="153"/>
+      <c r="A41" s="150"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="110" t="s">
         <v>282</v>
       </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="153"/>
+      <c r="D41" s="94">
+        <v>1</v>
+      </c>
+      <c r="E41" s="145"/>
       <c r="F41" s="94"/>
       <c r="G41" s="122"/>
       <c r="H41" s="122"/>
@@ -57234,8 +57254,8 @@
       <c r="K41" s="122"/>
     </row>
     <row r="42" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A42" s="138"/>
-      <c r="B42" s="156" t="s">
+      <c r="A42" s="150"/>
+      <c r="B42" s="143" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="107" t="s">
@@ -57244,7 +57264,7 @@
       <c r="D42" s="94">
         <v>2</v>
       </c>
-      <c r="E42" s="156" t="s">
+      <c r="E42" s="143" t="s">
         <v>326</v>
       </c>
       <c r="F42" s="94"/>
@@ -57255,15 +57275,15 @@
       <c r="K42" s="122"/>
     </row>
     <row r="43" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A43" s="138"/>
-      <c r="B43" s="153"/>
+      <c r="A43" s="150"/>
+      <c r="B43" s="145"/>
       <c r="C43" s="107" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="94">
         <v>3</v>
       </c>
-      <c r="E43" s="153"/>
+      <c r="E43" s="145"/>
       <c r="F43" s="94"/>
       <c r="G43" s="122"/>
       <c r="H43" s="122"/>
@@ -57272,15 +57292,15 @@
       <c r="K43" s="122"/>
     </row>
     <row r="44" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A44" s="138"/>
-      <c r="B44" s="156" t="s">
+      <c r="A44" s="150"/>
+      <c r="B44" s="143" t="s">
         <v>154</v>
       </c>
       <c r="C44" s="113" t="s">
         <v>155</v>
       </c>
       <c r="D44" s="94"/>
-      <c r="E44" s="156" t="s">
+      <c r="E44" s="143" t="s">
         <v>324</v>
       </c>
       <c r="F44" s="94"/>
@@ -57291,13 +57311,13 @@
       <c r="K44" s="122"/>
     </row>
     <row r="45" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A45" s="138"/>
-      <c r="B45" s="153"/>
+      <c r="A45" s="150"/>
+      <c r="B45" s="145"/>
       <c r="C45" s="113" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="94"/>
-      <c r="E45" s="153"/>
+      <c r="E45" s="145"/>
       <c r="F45" s="94"/>
       <c r="G45" s="122"/>
       <c r="H45" s="122"/>
@@ -57306,38 +57326,38 @@
       <c r="K45" s="122"/>
     </row>
     <row r="46" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A46" s="138"/>
-      <c r="B46" s="156" t="s">
+      <c r="A46" s="150"/>
+      <c r="B46" s="143" t="s">
         <v>301</v>
       </c>
       <c r="C46" s="108" t="s">
         <v>303</v>
       </c>
       <c r="D46" s="95"/>
-      <c r="E46" s="156" t="s">
+      <c r="E46" s="143" t="s">
         <v>325</v>
       </c>
       <c r="F46" s="95"/>
-      <c r="G46" s="162"/>
-      <c r="H46" s="162"/>
-      <c r="I46" s="162"/>
-      <c r="J46" s="162"/>
-      <c r="K46" s="162"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
     </row>
     <row r="47" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="159"/>
-      <c r="B47" s="157"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="108" t="s">
         <v>304</v>
       </c>
       <c r="D47" s="95"/>
-      <c r="E47" s="157"/>
+      <c r="E47" s="156"/>
       <c r="F47" s="95"/>
-      <c r="G47" s="162"/>
-      <c r="H47" s="162"/>
-      <c r="I47" s="162"/>
-      <c r="J47" s="162"/>
-      <c r="K47" s="162"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
+      <c r="K47" s="127"/>
     </row>
     <row r="48" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="70" t="s">
@@ -57354,11 +57374,11 @@
         <v>315</v>
       </c>
       <c r="F48" s="52"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="164"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="164"/>
-      <c r="K48" s="164"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
       <c r="L48" s="48"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -57629,15 +57649,20 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E25"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
@@ -57648,20 +57673,15 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/발표/3조 5차 요구사항정의서_hsw.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서_hsw.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-15\Desktop\github\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="338">
   <si>
     <t>구분</t>
   </si>
@@ -1265,6 +1265,42 @@
     <t>한송우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>4월8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월20일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월21일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월23일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2347,7 +2383,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2356,13 +2395,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2374,58 +2419,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2440,10 +2437,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2493,7 +2529,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1198"/>
+                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1217"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2552,7 +2588,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1199"/>
+                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1218"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2611,7 +2647,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1200"/>
+                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1219"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2670,7 +2706,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1201"/>
+                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1220"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2729,7 +2765,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1202"/>
+                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1221"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2788,7 +2824,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1203"/>
+                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1222"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2847,7 +2883,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1204"/>
+                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1223"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2906,7 +2942,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1205"/>
+                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1224"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2965,7 +3001,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1206"/>
+                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1225"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3024,7 +3060,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1207"/>
+                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1226"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3083,7 +3119,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1208"/>
+                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1227"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3142,7 +3178,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1209"/>
+                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1228"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3201,7 +3237,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1210"/>
+                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1229"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3260,7 +3296,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1211"/>
+                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1230"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3319,7 +3355,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1212"/>
+                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1231"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3378,7 +3414,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1213"/>
+                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1232"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3437,7 +3473,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1214"/>
+                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1233"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3496,7 +3532,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1215"/>
+                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1234"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3555,7 +3591,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1216"/>
+                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1235"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3941,10 +3977,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -3961,8 +3997,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="137"/>
-      <c r="C4" s="134"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="131"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -3977,8 +4013,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="137"/>
-      <c r="C5" s="135"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -3993,8 +4029,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="137"/>
-      <c r="C6" s="133" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4011,8 +4047,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="137"/>
-      <c r="C7" s="134"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4027,8 +4063,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="138"/>
-      <c r="C8" s="135"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4045,10 +4081,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="130" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4065,8 +4101,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="131"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4081,11 +4117,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="131"/>
-      <c r="C11" s="133" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="D11" s="135" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4099,9 +4135,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="131"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="140"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4113,8 +4149,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="131"/>
-      <c r="C13" s="134"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4129,8 +4165,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="131"/>
-      <c r="C14" s="134"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4145,8 +4181,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="131"/>
-      <c r="C15" s="135"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="134"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4163,8 +4199,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="131"/>
-      <c r="C16" s="133" t="s">
+      <c r="B16" s="132"/>
+      <c r="C16" s="130" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4181,8 +4217,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="131"/>
-      <c r="C17" s="134"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4197,8 +4233,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="131"/>
-      <c r="C18" s="134"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4213,8 +4249,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="132"/>
-      <c r="C19" s="135"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4229,10 +4265,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="130" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4249,8 +4285,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="131"/>
-      <c r="C21" s="134"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4265,8 +4301,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="131"/>
-      <c r="C22" s="135"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4281,7 +4317,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="131"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4299,10 +4335,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="C24" s="130" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4319,8 +4355,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="131"/>
-      <c r="C25" s="134"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4335,8 +4371,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="131"/>
-      <c r="C26" s="135"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -4351,7 +4387,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="131"/>
+      <c r="B27" s="132"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -4369,7 +4405,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="132"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -4407,10 +4443,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="135" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -4427,8 +4463,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="134"/>
-      <c r="C31" s="141"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -4443,8 +4479,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="131"/>
-      <c r="C32" s="133" t="s">
+      <c r="B32" s="132"/>
+      <c r="C32" s="130" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -4461,8 +4497,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="131"/>
-      <c r="C33" s="135"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -4477,8 +4513,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="131"/>
-      <c r="C34" s="133" t="s">
+      <c r="B34" s="132"/>
+      <c r="C34" s="130" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -4495,8 +4531,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="131"/>
-      <c r="C35" s="134"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="131"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -4509,8 +4545,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="131"/>
-      <c r="C36" s="134"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="131"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -4525,8 +4561,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="131"/>
-      <c r="C37" s="134"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="131"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -4541,8 +4577,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="131"/>
-      <c r="C38" s="135"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -4557,8 +4593,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="131"/>
-      <c r="C39" s="133" t="s">
+      <c r="B39" s="132"/>
+      <c r="C39" s="130" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -4575,8 +4611,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="131"/>
-      <c r="C40" s="134"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="131"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -4591,8 +4627,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="131"/>
-      <c r="C41" s="134"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="131"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -4607,8 +4643,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="131"/>
-      <c r="C42" s="134"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="131"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -4623,8 +4659,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="131"/>
-      <c r="C43" s="135"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -4639,8 +4675,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="131"/>
-      <c r="C44" s="133" t="s">
+      <c r="B44" s="132"/>
+      <c r="C44" s="130" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -4657,8 +4693,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="131"/>
-      <c r="C45" s="135"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -4673,8 +4709,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="131"/>
-      <c r="C46" s="133" t="s">
+      <c r="B46" s="132"/>
+      <c r="C46" s="130" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -4691,8 +4727,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="131"/>
-      <c r="C47" s="135"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -4707,8 +4743,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="131"/>
-      <c r="C48" s="133" t="s">
+      <c r="B48" s="132"/>
+      <c r="C48" s="130" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -4725,8 +4761,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="132"/>
-      <c r="C49" s="135"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -4742,6 +4778,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -4750,18 +4798,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4791,15 +4827,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="146"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="148"/>
+      <c r="A1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -4831,21 +4867,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="157"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="159"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="146"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="150" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -4861,8 +4897,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="152"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="151"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -4876,8 +4912,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="152"/>
-      <c r="B6" s="142"/>
+      <c r="A6" s="148"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -4891,8 +4927,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="152"/>
-      <c r="B7" s="142" t="s">
+      <c r="A7" s="148"/>
+      <c r="B7" s="151" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -4908,8 +4944,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="152"/>
-      <c r="B8" s="142"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -4923,8 +4959,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="161"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="149"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -4938,10 +4974,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="159" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -4957,8 +4993,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
-      <c r="B11" s="144"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -4972,8 +5008,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="150"/>
-      <c r="B12" s="144"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -4987,8 +5023,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="150"/>
-      <c r="B13" s="145"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5004,8 +5040,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="150"/>
-      <c r="B14" s="143" t="s">
+      <c r="A14" s="143"/>
+      <c r="B14" s="161" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5021,8 +5057,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="150"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5036,8 +5072,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="150"/>
-      <c r="B16" s="143" t="s">
+      <c r="A16" s="143"/>
+      <c r="B16" s="161" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5053,8 +5089,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="150"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5068,8 +5104,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="150"/>
-      <c r="B18" s="144"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5085,8 +5121,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="150"/>
-      <c r="B19" s="145"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5100,8 +5136,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="150"/>
-      <c r="B20" s="143" t="s">
+      <c r="A20" s="143"/>
+      <c r="B20" s="161" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5117,8 +5153,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="150"/>
-      <c r="B21" s="145"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5132,8 +5168,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="150"/>
-      <c r="B22" s="143" t="s">
+      <c r="A22" s="143"/>
+      <c r="B22" s="161" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5149,8 +5185,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="150"/>
-      <c r="B23" s="144"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5164,8 +5200,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="150"/>
-      <c r="B24" s="144"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5179,8 +5215,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="150"/>
-      <c r="B25" s="145"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5194,8 +5230,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="150"/>
-      <c r="B26" s="143" t="s">
+      <c r="A26" s="143"/>
+      <c r="B26" s="161" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5211,8 +5247,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="150"/>
-      <c r="B27" s="144"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5226,8 +5262,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="150"/>
-      <c r="B28" s="144"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5241,8 +5277,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="150"/>
-      <c r="B29" s="144"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5256,10 +5292,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="150" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5275,8 +5311,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="150"/>
-      <c r="B31" s="142"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5290,8 +5326,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="150"/>
-      <c r="B32" s="142"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5305,8 +5341,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="150"/>
-      <c r="B33" s="142"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5320,8 +5356,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="150"/>
-      <c r="B34" s="142" t="s">
+      <c r="A34" s="143"/>
+      <c r="B34" s="151" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5337,8 +5373,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="150"/>
-      <c r="B35" s="142"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -21727,8 +21763,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="150"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -21740,8 +21776,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="150"/>
-      <c r="B37" s="142" t="s">
+      <c r="A37" s="143"/>
+      <c r="B37" s="151" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -21757,8 +21793,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="150"/>
-      <c r="B38" s="142"/>
+      <c r="A38" s="143"/>
+      <c r="B38" s="151"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -21772,7 +21808,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="150"/>
+      <c r="A39" s="143"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -21789,10 +21825,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="151" t="s">
+      <c r="A40" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="158" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -21808,8 +21844,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="152"/>
-      <c r="B41" s="142"/>
+      <c r="A41" s="148"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -21823,8 +21859,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="152"/>
-      <c r="B42" s="142" t="s">
+      <c r="A42" s="148"/>
+      <c r="B42" s="151" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -21840,8 +21876,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="152"/>
-      <c r="B43" s="142"/>
+      <c r="A43" s="148"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -21855,11 +21891,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="152"/>
-      <c r="B44" s="142" t="s">
+      <c r="A44" s="148"/>
+      <c r="B44" s="151" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="143" t="s">
+      <c r="C44" s="161" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -21872,9 +21908,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="152"/>
-      <c r="B45" s="142"/>
-      <c r="C45" s="145"/>
+      <c r="A45" s="148"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="158"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -21885,8 +21921,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="152"/>
-      <c r="B46" s="142"/>
+      <c r="A46" s="148"/>
+      <c r="B46" s="151"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -21900,8 +21936,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="152"/>
-      <c r="B47" s="142"/>
+      <c r="A47" s="148"/>
+      <c r="B47" s="151"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -21915,8 +21951,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="152"/>
-      <c r="B48" s="142"/>
+      <c r="A48" s="148"/>
+      <c r="B48" s="151"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -21930,8 +21966,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="152"/>
-      <c r="B49" s="142" t="s">
+      <c r="A49" s="148"/>
+      <c r="B49" s="151" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -21947,8 +21983,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="152"/>
-      <c r="B50" s="142"/>
+      <c r="A50" s="148"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -21962,8 +21998,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="152"/>
-      <c r="B51" s="142"/>
+      <c r="A51" s="148"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -21977,8 +22013,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="152"/>
-      <c r="B52" s="142"/>
+      <c r="A52" s="148"/>
+      <c r="B52" s="151"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -21992,8 +22028,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="152"/>
-      <c r="B53" s="143" t="s">
+      <c r="A53" s="148"/>
+      <c r="B53" s="161" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22009,8 +22045,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="152"/>
-      <c r="B54" s="144"/>
+      <c r="A54" s="148"/>
+      <c r="B54" s="160"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22024,8 +22060,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="152"/>
-      <c r="B55" s="142" t="s">
+      <c r="A55" s="148"/>
+      <c r="B55" s="151" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22041,8 +22077,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="152"/>
-      <c r="B56" s="142"/>
+      <c r="A56" s="148"/>
+      <c r="B56" s="151"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22056,8 +22092,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="152"/>
-      <c r="B57" s="143" t="s">
+      <c r="A57" s="148"/>
+      <c r="B57" s="161" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22073,8 +22109,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="153"/>
-      <c r="B58" s="145"/>
+      <c r="A58" s="157"/>
+      <c r="B58" s="158"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22088,8 +22124,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="153"/>
-      <c r="B59" s="143" t="s">
+      <c r="A59" s="157"/>
+      <c r="B59" s="161" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22105,8 +22141,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="153"/>
-      <c r="B60" s="156"/>
+      <c r="A60" s="157"/>
+      <c r="B60" s="162"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -22369,11 +22405,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -22390,11 +22426,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22439,15 +22475,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="146"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="148"/>
+      <c r="A1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -22479,15 +22515,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="157"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="159"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="146"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
@@ -40111,18 +40147,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="N10:N29"/>
-    <mergeCell ref="O10:O14"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="O26:O29"/>
     <mergeCell ref="N30:N36"/>
     <mergeCell ref="O30:O33"/>
     <mergeCell ref="O34:O35"/>
@@ -40132,6 +40156,18 @@
     <mergeCell ref="O42:O43"/>
     <mergeCell ref="O44:O45"/>
     <mergeCell ref="O46:O47"/>
+    <mergeCell ref="N10:N29"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40145,8 +40181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40224,109 +40260,145 @@
       <c r="J3" s="99"/>
       <c r="K3" s="99"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="149" t="s">
+    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="155" t="s">
+      <c r="D4" s="98">
+        <v>1</v>
+      </c>
+      <c r="E4" s="159" t="s">
         <v>316</v>
       </c>
       <c r="F4" s="98"/>
-      <c r="G4" s="125"/>
+      <c r="G4" s="122" t="s">
+        <v>330</v>
+      </c>
       <c r="H4" s="125"/>
       <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
+      <c r="J4" s="125" t="s">
+        <v>334</v>
+      </c>
       <c r="K4" s="125"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="150"/>
-      <c r="B5" s="144"/>
+    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="143"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="144"/>
+      <c r="D5" s="94">
+        <v>1</v>
+      </c>
+      <c r="E5" s="160"/>
       <c r="F5" s="94"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
+      <c r="G5" s="122" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="125"/>
       <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
+      <c r="J5" s="125" t="s">
+        <v>334</v>
+      </c>
       <c r="K5" s="122"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="150"/>
-      <c r="B6" s="145"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="144"/>
+      <c r="D6" s="94">
+        <v>1</v>
+      </c>
+      <c r="E6" s="160"/>
       <c r="F6" s="94"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
+      <c r="G6" s="122" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="125"/>
       <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
+      <c r="J6" s="125" t="s">
+        <v>334</v>
+      </c>
       <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="150"/>
-      <c r="B7" s="143" t="s">
+      <c r="A7" s="143"/>
+      <c r="B7" s="161" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="144"/>
+      <c r="D7" s="94">
+        <v>1</v>
+      </c>
+      <c r="E7" s="160"/>
       <c r="F7" s="94"/>
-      <c r="G7" s="122"/>
+      <c r="G7" s="122" t="s">
+        <v>331</v>
+      </c>
       <c r="H7" s="122"/>
       <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
+      <c r="J7" s="122" t="s">
+        <v>335</v>
+      </c>
       <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="150"/>
-      <c r="B8" s="144"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="144"/>
+      <c r="D8" s="94">
+        <v>1</v>
+      </c>
+      <c r="E8" s="160"/>
       <c r="F8" s="94"/>
-      <c r="G8" s="122"/>
+      <c r="G8" s="122" t="s">
+        <v>331</v>
+      </c>
       <c r="H8" s="122"/>
       <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
+      <c r="J8" s="122" t="s">
+        <v>335</v>
+      </c>
       <c r="K8" s="122"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="164"/>
-      <c r="B9" s="156"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="103" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="156"/>
+      <c r="D9" s="100">
+        <v>1</v>
+      </c>
+      <c r="E9" s="162"/>
       <c r="F9" s="100"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
+      <c r="G9" s="122" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" s="122"/>
       <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
+      <c r="J9" s="122" t="s">
+        <v>335</v>
+      </c>
       <c r="K9" s="126"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="142" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="159" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="109" t="s">
@@ -40335,7 +40407,7 @@
       <c r="D10" s="98">
         <v>2</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="E10" s="159" t="s">
         <v>320</v>
       </c>
       <c r="F10" s="98"/>
@@ -40346,15 +40418,15 @@
       <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
-      <c r="B11" s="144"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="110" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="94">
         <v>1</v>
       </c>
-      <c r="E11" s="144"/>
+      <c r="E11" s="160"/>
       <c r="F11" s="94"/>
       <c r="G11" s="122"/>
       <c r="H11" s="122"/>
@@ -40363,15 +40435,15 @@
       <c r="K11" s="122"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="150"/>
-      <c r="B12" s="144"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="110" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="94">
         <v>1</v>
       </c>
-      <c r="E12" s="144"/>
+      <c r="E12" s="160"/>
       <c r="F12" s="94"/>
       <c r="G12" s="122"/>
       <c r="H12" s="122"/>
@@ -40380,15 +40452,15 @@
       <c r="K12" s="122"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="150"/>
-      <c r="B13" s="144"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="110" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="94">
         <v>2</v>
       </c>
-      <c r="E13" s="145"/>
+      <c r="E13" s="158"/>
       <c r="F13" s="94"/>
       <c r="G13" s="122"/>
       <c r="H13" s="122"/>
@@ -40397,8 +40469,8 @@
       <c r="K13" s="122"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="150"/>
-      <c r="B14" s="145"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="113" t="s">
         <v>211</v>
       </c>
@@ -40414,8 +40486,8 @@
       <c r="K14" s="122"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="150"/>
-      <c r="B15" s="143" t="s">
+      <c r="A15" s="143"/>
+      <c r="B15" s="161" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="111" t="s">
@@ -40424,7 +40496,7 @@
       <c r="D15" s="94">
         <v>2</v>
       </c>
-      <c r="E15" s="143" t="s">
+      <c r="E15" s="161" t="s">
         <v>320</v>
       </c>
       <c r="F15" s="94"/>
@@ -40435,15 +40507,15 @@
       <c r="K15" s="122"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="150"/>
-      <c r="B16" s="144"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="110" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="94">
         <v>1</v>
       </c>
-      <c r="E16" s="144"/>
+      <c r="E16" s="160"/>
       <c r="F16" s="94"/>
       <c r="G16" s="122"/>
       <c r="H16" s="122"/>
@@ -40452,15 +40524,15 @@
       <c r="K16" s="122"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="150"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="110" t="s">
         <v>225</v>
       </c>
       <c r="D17" s="94">
         <v>1</v>
       </c>
-      <c r="E17" s="145"/>
+      <c r="E17" s="158"/>
       <c r="F17" s="94"/>
       <c r="G17" s="122"/>
       <c r="H17" s="122"/>
@@ -40469,8 +40541,8 @@
       <c r="K17" s="122"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="150"/>
-      <c r="B18" s="145"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="113" t="s">
         <v>228</v>
       </c>
@@ -40486,8 +40558,8 @@
       <c r="K18" s="122"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="150"/>
-      <c r="B19" s="143" t="s">
+      <c r="A19" s="143"/>
+      <c r="B19" s="161" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="107" t="s">
@@ -40496,7 +40568,7 @@
       <c r="D19" s="94">
         <v>1</v>
       </c>
-      <c r="E19" s="143" t="s">
+      <c r="E19" s="161" t="s">
         <v>328</v>
       </c>
       <c r="F19" s="94"/>
@@ -40507,15 +40579,15 @@
       <c r="K19" s="122"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="150"/>
-      <c r="B20" s="145"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="107" t="s">
         <v>184</v>
       </c>
       <c r="D20" s="94">
         <v>2</v>
       </c>
-      <c r="E20" s="144"/>
+      <c r="E20" s="160"/>
       <c r="F20" s="94"/>
       <c r="G20" s="122"/>
       <c r="H20" s="122"/>
@@ -40524,8 +40596,8 @@
       <c r="K20" s="122"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="150"/>
-      <c r="B21" s="143" t="s">
+      <c r="A21" s="143"/>
+      <c r="B21" s="161" t="s">
         <v>193</v>
       </c>
       <c r="C21" s="107" t="s">
@@ -40534,7 +40606,7 @@
       <c r="D21" s="94">
         <v>3</v>
       </c>
-      <c r="E21" s="145"/>
+      <c r="E21" s="158"/>
       <c r="F21" s="94"/>
       <c r="G21" s="122"/>
       <c r="H21" s="122"/>
@@ -40543,13 +40615,13 @@
       <c r="K21" s="122"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="150"/>
-      <c r="B22" s="145"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="113" t="s">
         <v>194</v>
       </c>
       <c r="D22" s="94"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="161" t="s">
         <v>322</v>
       </c>
       <c r="F22" s="94"/>
@@ -40560,15 +40632,15 @@
       <c r="K22" s="122"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="150"/>
-      <c r="B23" s="143" t="s">
+      <c r="A23" s="143"/>
+      <c r="B23" s="161" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="113" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="94"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="160"/>
       <c r="F23" s="94"/>
       <c r="G23" s="122"/>
       <c r="H23" s="122"/>
@@ -40577,13 +40649,13 @@
       <c r="K23" s="122"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="150"/>
-      <c r="B24" s="144"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="113" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="94"/>
-      <c r="E24" s="144"/>
+      <c r="E24" s="160"/>
       <c r="F24" s="94"/>
       <c r="G24" s="122"/>
       <c r="H24" s="122"/>
@@ -40592,13 +40664,13 @@
       <c r="K24" s="122"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="150"/>
-      <c r="B25" s="145"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="113" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="94"/>
-      <c r="E25" s="145"/>
+      <c r="E25" s="158"/>
       <c r="F25" s="94"/>
       <c r="G25" s="122"/>
       <c r="H25" s="122"/>
@@ -40607,15 +40679,15 @@
       <c r="K25" s="122"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="150"/>
-      <c r="B26" s="143" t="s">
+      <c r="A26" s="143"/>
+      <c r="B26" s="161" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="94"/>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="161" t="s">
         <v>317</v>
       </c>
       <c r="F26" s="94"/>
@@ -40626,13 +40698,13 @@
       <c r="K26" s="122"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="150"/>
-      <c r="B27" s="144"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="107" t="s">
         <v>178</v>
       </c>
       <c r="D27" s="94"/>
-      <c r="E27" s="144"/>
+      <c r="E27" s="160"/>
       <c r="F27" s="94"/>
       <c r="G27" s="122"/>
       <c r="H27" s="122"/>
@@ -40641,13 +40713,13 @@
       <c r="K27" s="122"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="150"/>
-      <c r="B28" s="144"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="107" t="s">
         <v>312</v>
       </c>
       <c r="D28" s="94"/>
-      <c r="E28" s="144"/>
+      <c r="E28" s="160"/>
       <c r="F28" s="94"/>
       <c r="G28" s="122"/>
       <c r="H28" s="122"/>
@@ -40657,7 +40729,7 @@
     </row>
     <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="164"/>
-      <c r="B29" s="156"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="108" t="s">
         <v>305</v>
       </c>
@@ -40672,50 +40744,58 @@
       <c r="J29" s="127"/>
       <c r="K29" s="127"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="149" t="s">
+    <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="159" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="104" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="98"/>
-      <c r="E30" s="155" t="s">
+      <c r="E30" s="159" t="s">
         <v>318</v>
       </c>
       <c r="F30" s="98"/>
-      <c r="G30" s="125"/>
+      <c r="G30" s="125" t="s">
+        <v>332</v>
+      </c>
       <c r="H30" s="125"/>
       <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
+      <c r="J30" s="125" t="s">
+        <v>336</v>
+      </c>
       <c r="K30" s="125"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="150"/>
-      <c r="B31" s="144"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="105" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="94"/>
-      <c r="E31" s="145"/>
+      <c r="E31" s="158"/>
       <c r="F31" s="94"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
+      <c r="G31" s="125" t="s">
+        <v>332</v>
+      </c>
+      <c r="H31" s="125"/>
       <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
+      <c r="J31" s="125" t="s">
+        <v>336</v>
+      </c>
       <c r="K31" s="122"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="150"/>
-      <c r="B32" s="144"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="114" t="s">
         <v>132</v>
       </c>
       <c r="D32" s="94"/>
-      <c r="E32" s="143" t="s">
+      <c r="E32" s="161" t="s">
         <v>321</v>
       </c>
       <c r="F32" s="94"/>
@@ -40726,13 +40806,13 @@
       <c r="K32" s="122"/>
     </row>
     <row r="33" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A33" s="150"/>
-      <c r="B33" s="145"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="114" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="94"/>
-      <c r="E33" s="145"/>
+      <c r="E33" s="158"/>
       <c r="F33" s="94"/>
       <c r="G33" s="122"/>
       <c r="H33" s="122"/>
@@ -40741,8 +40821,8 @@
       <c r="K33" s="122"/>
     </row>
     <row r="34" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A34" s="150"/>
-      <c r="B34" s="143" t="s">
+      <c r="A34" s="143"/>
+      <c r="B34" s="161" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="112" t="s">
@@ -40751,7 +40831,7 @@
       <c r="D34" s="95">
         <v>2</v>
       </c>
-      <c r="E34" s="143" t="s">
+      <c r="E34" s="161" t="s">
         <v>327</v>
       </c>
       <c r="F34" s="95"/>
@@ -40762,15 +40842,15 @@
       <c r="K34" s="127"/>
     </row>
     <row r="35" spans="1:16376" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="150"/>
-      <c r="B35" s="145"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="158"/>
       <c r="C35" s="112" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="94">
         <v>3</v>
       </c>
-      <c r="E35" s="145"/>
+      <c r="E35" s="158"/>
       <c r="F35" s="94"/>
       <c r="G35" s="122"/>
       <c r="H35" s="122"/>
@@ -57162,45 +57242,57 @@
       <c r="J36" s="126"/>
       <c r="K36" s="126"/>
     </row>
-    <row r="37" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A37" s="149" t="s">
+    <row r="37" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="155" t="s">
+      <c r="B37" s="159" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="96"/>
-      <c r="E37" s="155" t="s">
+      <c r="D37" s="96">
+        <v>3</v>
+      </c>
+      <c r="E37" s="159" t="s">
         <v>319</v>
       </c>
       <c r="F37" s="96"/>
-      <c r="G37" s="128"/>
+      <c r="G37" s="125" t="s">
+        <v>332</v>
+      </c>
       <c r="H37" s="128"/>
       <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
+      <c r="J37" s="128" t="s">
+        <v>337</v>
+      </c>
       <c r="K37" s="128"/>
     </row>
     <row r="38" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A38" s="150"/>
-      <c r="B38" s="145"/>
+      <c r="A38" s="143"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="94"/>
-      <c r="E38" s="145"/>
+      <c r="D38" s="94">
+        <v>3</v>
+      </c>
+      <c r="E38" s="158"/>
       <c r="F38" s="94"/>
-      <c r="G38" s="122"/>
+      <c r="G38" s="125" t="s">
+        <v>332</v>
+      </c>
       <c r="H38" s="122"/>
       <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
+      <c r="J38" s="122" t="s">
+        <v>337</v>
+      </c>
       <c r="K38" s="122"/>
     </row>
     <row r="39" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A39" s="150"/>
-      <c r="B39" s="143" t="s">
+      <c r="A39" s="143"/>
+      <c r="B39" s="161" t="s">
         <v>280</v>
       </c>
       <c r="C39" s="110" t="s">
@@ -57209,7 +57301,7 @@
       <c r="D39" s="94">
         <v>1</v>
       </c>
-      <c r="E39" s="143" t="s">
+      <c r="E39" s="161" t="s">
         <v>320</v>
       </c>
       <c r="F39" s="94"/>
@@ -57220,15 +57312,15 @@
       <c r="K39" s="122"/>
     </row>
     <row r="40" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A40" s="150"/>
-      <c r="B40" s="144"/>
+      <c r="A40" s="143"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="110" t="s">
         <v>283</v>
       </c>
       <c r="D40" s="94">
         <v>1</v>
       </c>
-      <c r="E40" s="144"/>
+      <c r="E40" s="160"/>
       <c r="F40" s="94"/>
       <c r="G40" s="122"/>
       <c r="H40" s="122"/>
@@ -57237,15 +57329,15 @@
       <c r="K40" s="122"/>
     </row>
     <row r="41" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A41" s="150"/>
-      <c r="B41" s="145"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="158"/>
       <c r="C41" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="94">
         <v>1</v>
       </c>
-      <c r="E41" s="145"/>
+      <c r="E41" s="158"/>
       <c r="F41" s="94"/>
       <c r="G41" s="122"/>
       <c r="H41" s="122"/>
@@ -57254,8 +57346,8 @@
       <c r="K41" s="122"/>
     </row>
     <row r="42" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A42" s="150"/>
-      <c r="B42" s="143" t="s">
+      <c r="A42" s="143"/>
+      <c r="B42" s="161" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="107" t="s">
@@ -57264,7 +57356,7 @@
       <c r="D42" s="94">
         <v>2</v>
       </c>
-      <c r="E42" s="143" t="s">
+      <c r="E42" s="161" t="s">
         <v>326</v>
       </c>
       <c r="F42" s="94"/>
@@ -57275,15 +57367,15 @@
       <c r="K42" s="122"/>
     </row>
     <row r="43" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A43" s="150"/>
-      <c r="B43" s="145"/>
+      <c r="A43" s="143"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="107" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="94">
         <v>3</v>
       </c>
-      <c r="E43" s="145"/>
+      <c r="E43" s="158"/>
       <c r="F43" s="94"/>
       <c r="G43" s="122"/>
       <c r="H43" s="122"/>
@@ -57292,15 +57384,15 @@
       <c r="K43" s="122"/>
     </row>
     <row r="44" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A44" s="150"/>
-      <c r="B44" s="143" t="s">
+      <c r="A44" s="143"/>
+      <c r="B44" s="161" t="s">
         <v>154</v>
       </c>
       <c r="C44" s="113" t="s">
         <v>155</v>
       </c>
       <c r="D44" s="94"/>
-      <c r="E44" s="143" t="s">
+      <c r="E44" s="161" t="s">
         <v>324</v>
       </c>
       <c r="F44" s="94"/>
@@ -57311,13 +57403,13 @@
       <c r="K44" s="122"/>
     </row>
     <row r="45" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A45" s="150"/>
-      <c r="B45" s="145"/>
+      <c r="A45" s="143"/>
+      <c r="B45" s="158"/>
       <c r="C45" s="113" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="94"/>
-      <c r="E45" s="145"/>
+      <c r="E45" s="158"/>
       <c r="F45" s="94"/>
       <c r="G45" s="122"/>
       <c r="H45" s="122"/>
@@ -57326,15 +57418,15 @@
       <c r="K45" s="122"/>
     </row>
     <row r="46" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A46" s="150"/>
-      <c r="B46" s="143" t="s">
+      <c r="A46" s="143"/>
+      <c r="B46" s="161" t="s">
         <v>301</v>
       </c>
       <c r="C46" s="108" t="s">
         <v>303</v>
       </c>
       <c r="D46" s="95"/>
-      <c r="E46" s="143" t="s">
+      <c r="E46" s="161" t="s">
         <v>325</v>
       </c>
       <c r="F46" s="95"/>
@@ -57346,12 +57438,12 @@
     </row>
     <row r="47" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="164"/>
-      <c r="B47" s="156"/>
+      <c r="B47" s="162"/>
       <c r="C47" s="108" t="s">
         <v>304</v>
       </c>
       <c r="D47" s="95"/>
-      <c r="E47" s="156"/>
+      <c r="E47" s="162"/>
       <c r="F47" s="95"/>
       <c r="G47" s="127"/>
       <c r="H47" s="127"/>
@@ -57369,15 +57461,21 @@
       <c r="C48" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="52"/>
+      <c r="D48" s="52">
+        <v>1</v>
+      </c>
       <c r="E48" s="52" t="s">
         <v>315</v>
       </c>
       <c r="F48" s="52"/>
-      <c r="G48" s="129"/>
+      <c r="G48" s="129" t="s">
+        <v>329</v>
+      </c>
       <c r="H48" s="129"/>
       <c r="I48" s="129"/>
-      <c r="J48" s="129"/>
+      <c r="J48" s="129" t="s">
+        <v>333</v>
+      </c>
       <c r="K48" s="129"/>
       <c r="L48" s="48"/>
     </row>
@@ -57649,20 +57747,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
@@ -57673,15 +57766,20 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/발표/3조 5차 요구사항정의서_hsw.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서_hsw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="342">
   <si>
     <t>구분</t>
   </si>
@@ -1301,6 +1301,22 @@
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>4월12일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월12일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월12일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2383,10 +2399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2395,19 +2408,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2419,10 +2426,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2437,49 +2492,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2529,7 +2545,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1217"/>
+                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1236"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2588,7 +2604,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1218"/>
+                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1237"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2647,7 +2663,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1219"/>
+                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1238"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2706,7 +2722,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1220"/>
+                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1239"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2765,7 +2781,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1221"/>
+                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1240"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2824,7 +2840,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1222"/>
+                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1241"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2883,7 +2899,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1223"/>
+                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1242"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2942,7 +2958,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1224"/>
+                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1243"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3001,7 +3017,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1225"/>
+                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1244"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3060,7 +3076,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1226"/>
+                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1245"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3119,7 +3135,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1227"/>
+                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1246"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3178,7 +3194,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1228"/>
+                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1247"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3237,7 +3253,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1229"/>
+                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1248"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3296,7 +3312,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1230"/>
+                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1249"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3355,7 +3371,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1231"/>
+                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1250"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3414,7 +3430,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1232"/>
+                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1251"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3473,7 +3489,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1233"/>
+                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1252"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3532,7 +3548,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1234"/>
+                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1253"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3591,7 +3607,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1235"/>
+                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1254"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3977,10 +3993,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="133" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -3997,8 +4013,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="140"/>
-      <c r="C4" s="131"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4013,8 +4029,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="140"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4029,8 +4045,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="140"/>
-      <c r="C6" s="130" t="s">
+      <c r="B6" s="137"/>
+      <c r="C6" s="133" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4047,8 +4063,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="140"/>
-      <c r="C7" s="131"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4063,8 +4079,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="141"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4081,10 +4097,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="133" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4101,8 +4117,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="132"/>
-      <c r="C10" s="134"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4117,11 +4133,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="132"/>
-      <c r="C11" s="130" t="s">
+      <c r="B11" s="131"/>
+      <c r="C11" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="139" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4135,9 +4151,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="132"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="137"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4149,8 +4165,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="132"/>
-      <c r="C13" s="131"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4165,8 +4181,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="132"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4181,8 +4197,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="132"/>
-      <c r="C15" s="134"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4199,8 +4215,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="132"/>
-      <c r="C16" s="130" t="s">
+      <c r="B16" s="131"/>
+      <c r="C16" s="133" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4217,8 +4233,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="132"/>
-      <c r="C17" s="131"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4233,8 +4249,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="132"/>
-      <c r="C18" s="131"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4249,8 +4265,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="133"/>
-      <c r="C19" s="134"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4265,10 +4281,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="133" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4285,8 +4301,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="132"/>
-      <c r="C21" s="131"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4301,8 +4317,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="132"/>
-      <c r="C22" s="134"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="135"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4317,7 +4333,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="132"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4335,10 +4351,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="133" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4355,8 +4371,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="132"/>
-      <c r="C25" s="131"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4387,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="132"/>
-      <c r="C26" s="134"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -4387,7 +4403,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="132"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -4405,7 +4421,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="133"/>
+      <c r="B28" s="132"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -4443,10 +4459,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="130" t="s">
+      <c r="B30" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="139" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -4463,8 +4479,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="131"/>
-      <c r="C31" s="136"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="141"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -4479,8 +4495,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="132"/>
-      <c r="C32" s="130" t="s">
+      <c r="B32" s="131"/>
+      <c r="C32" s="133" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -4497,8 +4513,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="132"/>
-      <c r="C33" s="134"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="135"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -4513,8 +4529,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="132"/>
-      <c r="C34" s="130" t="s">
+      <c r="B34" s="131"/>
+      <c r="C34" s="133" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -4531,8 +4547,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="132"/>
-      <c r="C35" s="131"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -4545,8 +4561,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="132"/>
-      <c r="C36" s="131"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -4561,8 +4577,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="132"/>
-      <c r="C37" s="131"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -4577,8 +4593,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="132"/>
-      <c r="C38" s="134"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="135"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -4593,8 +4609,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="132"/>
-      <c r="C39" s="130" t="s">
+      <c r="B39" s="131"/>
+      <c r="C39" s="133" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -4611,8 +4627,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="132"/>
-      <c r="C40" s="131"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -4627,8 +4643,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="132"/>
-      <c r="C41" s="131"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="134"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -4643,8 +4659,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="132"/>
-      <c r="C42" s="131"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -4659,8 +4675,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="132"/>
-      <c r="C43" s="134"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="135"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -4675,8 +4691,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="132"/>
-      <c r="C44" s="130" t="s">
+      <c r="B44" s="131"/>
+      <c r="C44" s="133" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -4693,8 +4709,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="132"/>
-      <c r="C45" s="134"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="135"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -4709,8 +4725,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="132"/>
-      <c r="C46" s="130" t="s">
+      <c r="B46" s="131"/>
+      <c r="C46" s="133" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -4727,8 +4743,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="132"/>
-      <c r="C47" s="134"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="135"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -4743,8 +4759,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="132"/>
-      <c r="C48" s="130" t="s">
+      <c r="B48" s="131"/>
+      <c r="C48" s="133" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -4761,8 +4777,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="133"/>
-      <c r="C49" s="134"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="135"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -4778,18 +4794,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -4798,6 +4802,18 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4827,15 +4843,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="153"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="155"/>
+      <c r="A1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="148"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -4867,21 +4883,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="159"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="154" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -4897,8 +4913,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="148"/>
-      <c r="B5" s="151"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -4912,8 +4928,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="148"/>
-      <c r="B6" s="151"/>
+      <c r="A6" s="152"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -4927,8 +4943,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
-      <c r="B7" s="151" t="s">
+      <c r="A7" s="152"/>
+      <c r="B7" s="142" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -4944,8 +4960,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="148"/>
-      <c r="B8" s="151"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -4959,8 +4975,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="149"/>
-      <c r="B9" s="152"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -4974,10 +4990,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="155" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -4993,8 +5009,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="143"/>
-      <c r="B11" s="160"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5008,8 +5024,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="143"/>
-      <c r="B12" s="160"/>
+      <c r="A12" s="150"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5023,8 +5039,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="143"/>
-      <c r="B13" s="158"/>
+      <c r="A13" s="150"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5040,8 +5056,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="143"/>
-      <c r="B14" s="161" t="s">
+      <c r="A14" s="150"/>
+      <c r="B14" s="143" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5057,8 +5073,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="143"/>
-      <c r="B15" s="160"/>
+      <c r="A15" s="150"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5072,8 +5088,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
-      <c r="B16" s="161" t="s">
+      <c r="A16" s="150"/>
+      <c r="B16" s="143" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5089,8 +5105,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="143"/>
-      <c r="B17" s="160"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5104,8 +5120,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="143"/>
-      <c r="B18" s="160"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5121,8 +5137,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="143"/>
-      <c r="B19" s="158"/>
+      <c r="A19" s="150"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5136,8 +5152,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="143"/>
-      <c r="B20" s="161" t="s">
+      <c r="A20" s="150"/>
+      <c r="B20" s="143" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5153,8 +5169,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="143"/>
-      <c r="B21" s="158"/>
+      <c r="A21" s="150"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5168,8 +5184,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="143"/>
-      <c r="B22" s="161" t="s">
+      <c r="A22" s="150"/>
+      <c r="B22" s="143" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5185,8 +5201,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="143"/>
-      <c r="B23" s="160"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5200,8 +5216,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="143"/>
-      <c r="B24" s="160"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5215,8 +5231,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="143"/>
-      <c r="B25" s="158"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5230,8 +5246,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="143"/>
-      <c r="B26" s="161" t="s">
+      <c r="A26" s="150"/>
+      <c r="B26" s="143" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5247,8 +5263,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="143"/>
-      <c r="B27" s="160"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5262,8 +5278,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="143"/>
-      <c r="B28" s="160"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="144"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5277,8 +5293,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="143"/>
-      <c r="B29" s="160"/>
+      <c r="A29" s="150"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5292,10 +5308,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="142" t="s">
+      <c r="A30" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="150" t="s">
+      <c r="B30" s="154" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5311,8 +5327,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="143"/>
-      <c r="B31" s="151"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="142"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5326,8 +5342,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="143"/>
-      <c r="B32" s="151"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="142"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5341,8 +5357,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="143"/>
-      <c r="B33" s="151"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="142"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5356,8 +5372,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="143"/>
-      <c r="B34" s="151" t="s">
+      <c r="A34" s="150"/>
+      <c r="B34" s="142" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5373,8 +5389,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="143"/>
-      <c r="B35" s="151"/>
+      <c r="A35" s="150"/>
+      <c r="B35" s="142"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -21763,8 +21779,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="143"/>
-      <c r="B36" s="151"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="142"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -21776,8 +21792,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="143"/>
-      <c r="B37" s="151" t="s">
+      <c r="A37" s="150"/>
+      <c r="B37" s="142" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -21793,8 +21809,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="143"/>
-      <c r="B38" s="151"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="142"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -21808,7 +21824,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="143"/>
+      <c r="A39" s="150"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -21825,10 +21841,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="156" t="s">
+      <c r="A40" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="158" t="s">
+      <c r="B40" s="145" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -21844,8 +21860,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="148"/>
-      <c r="B41" s="151"/>
+      <c r="A41" s="152"/>
+      <c r="B41" s="142"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -21859,8 +21875,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="148"/>
-      <c r="B42" s="151" t="s">
+      <c r="A42" s="152"/>
+      <c r="B42" s="142" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -21876,8 +21892,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="148"/>
-      <c r="B43" s="151"/>
+      <c r="A43" s="152"/>
+      <c r="B43" s="142"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -21891,11 +21907,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="148"/>
-      <c r="B44" s="151" t="s">
+      <c r="A44" s="152"/>
+      <c r="B44" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="161" t="s">
+      <c r="C44" s="143" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -21908,9 +21924,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="148"/>
-      <c r="B45" s="151"/>
-      <c r="C45" s="158"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="145"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -21921,8 +21937,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="148"/>
-      <c r="B46" s="151"/>
+      <c r="A46" s="152"/>
+      <c r="B46" s="142"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -21936,8 +21952,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="148"/>
-      <c r="B47" s="151"/>
+      <c r="A47" s="152"/>
+      <c r="B47" s="142"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -21951,8 +21967,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="148"/>
-      <c r="B48" s="151"/>
+      <c r="A48" s="152"/>
+      <c r="B48" s="142"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -21966,8 +21982,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="148"/>
-      <c r="B49" s="151" t="s">
+      <c r="A49" s="152"/>
+      <c r="B49" s="142" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -21983,8 +21999,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="148"/>
-      <c r="B50" s="151"/>
+      <c r="A50" s="152"/>
+      <c r="B50" s="142"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -21998,8 +22014,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="148"/>
-      <c r="B51" s="151"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="142"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22013,8 +22029,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="148"/>
-      <c r="B52" s="151"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="142"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22028,8 +22044,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="148"/>
-      <c r="B53" s="161" t="s">
+      <c r="A53" s="152"/>
+      <c r="B53" s="143" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22045,8 +22061,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="148"/>
-      <c r="B54" s="160"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="144"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22060,8 +22076,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="148"/>
-      <c r="B55" s="151" t="s">
+      <c r="A55" s="152"/>
+      <c r="B55" s="142" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22077,8 +22093,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="148"/>
-      <c r="B56" s="151"/>
+      <c r="A56" s="152"/>
+      <c r="B56" s="142"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22092,8 +22108,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="148"/>
-      <c r="B57" s="161" t="s">
+      <c r="A57" s="152"/>
+      <c r="B57" s="143" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22109,8 +22125,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="157"/>
-      <c r="B58" s="158"/>
+      <c r="A58" s="153"/>
+      <c r="B58" s="145"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22124,8 +22140,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="157"/>
-      <c r="B59" s="161" t="s">
+      <c r="A59" s="153"/>
+      <c r="B59" s="143" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22141,8 +22157,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="157"/>
-      <c r="B60" s="162"/>
+      <c r="A60" s="153"/>
+      <c r="B60" s="156"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -22405,11 +22421,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -22426,11 +22442,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22475,15 +22491,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="153"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="155"/>
+      <c r="A1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="148"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -22515,15 +22531,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="159"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
@@ -40147,6 +40163,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="N10:N29"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="O26:O29"/>
     <mergeCell ref="N30:N36"/>
     <mergeCell ref="O30:O33"/>
     <mergeCell ref="O34:O35"/>
@@ -40156,18 +40184,6 @@
     <mergeCell ref="O42:O43"/>
     <mergeCell ref="O44:O45"/>
     <mergeCell ref="O46:O47"/>
-    <mergeCell ref="N10:N29"/>
-    <mergeCell ref="O10:O14"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40181,8 +40197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40261,10 +40277,10 @@
       <c r="K3" s="99"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="155" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="101" t="s">
@@ -40273,7 +40289,7 @@
       <c r="D4" s="98">
         <v>1</v>
       </c>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="155" t="s">
         <v>316</v>
       </c>
       <c r="F4" s="98"/>
@@ -40288,15 +40304,15 @@
       <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="143"/>
-      <c r="B5" s="160"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="94">
         <v>1</v>
       </c>
-      <c r="E5" s="160"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="94"/>
       <c r="G5" s="122" t="s">
         <v>330</v>
@@ -40309,15 +40325,15 @@
       <c r="K5" s="122"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="143"/>
-      <c r="B6" s="158"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="102" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="94">
         <v>1</v>
       </c>
-      <c r="E6" s="160"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="94"/>
       <c r="G6" s="122" t="s">
         <v>330</v>
@@ -40330,8 +40346,8 @@
       <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="143"/>
-      <c r="B7" s="161" t="s">
+      <c r="A7" s="150"/>
+      <c r="B7" s="143" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="102" t="s">
@@ -40340,10 +40356,10 @@
       <c r="D7" s="94">
         <v>1</v>
       </c>
-      <c r="E7" s="160"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="94"/>
       <c r="G7" s="122" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H7" s="122"/>
       <c r="I7" s="122"/>
@@ -40353,18 +40369,18 @@
       <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="143"/>
-      <c r="B8" s="160"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="102" t="s">
         <v>276</v>
       </c>
       <c r="D8" s="94">
         <v>1</v>
       </c>
-      <c r="E8" s="160"/>
+      <c r="E8" s="144"/>
       <c r="F8" s="94"/>
       <c r="G8" s="122" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H8" s="122"/>
       <c r="I8" s="122"/>
@@ -40375,17 +40391,17 @@
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="164"/>
-      <c r="B9" s="162"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="103" t="s">
         <v>275</v>
       </c>
       <c r="D9" s="100">
         <v>1</v>
       </c>
-      <c r="E9" s="162"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="100"/>
       <c r="G9" s="122" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H9" s="122"/>
       <c r="I9" s="126"/>
@@ -40395,10 +40411,10 @@
       <c r="K9" s="126"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="155" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="109" t="s">
@@ -40407,7 +40423,7 @@
       <c r="D10" s="98">
         <v>2</v>
       </c>
-      <c r="E10" s="159" t="s">
+      <c r="E10" s="155" t="s">
         <v>320</v>
       </c>
       <c r="F10" s="98"/>
@@ -40418,15 +40434,15 @@
       <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="143"/>
-      <c r="B11" s="160"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="110" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="94">
         <v>1</v>
       </c>
-      <c r="E11" s="160"/>
+      <c r="E11" s="144"/>
       <c r="F11" s="94"/>
       <c r="G11" s="122"/>
       <c r="H11" s="122"/>
@@ -40435,15 +40451,15 @@
       <c r="K11" s="122"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="143"/>
-      <c r="B12" s="160"/>
+      <c r="A12" s="150"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="110" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="94">
         <v>1</v>
       </c>
-      <c r="E12" s="160"/>
+      <c r="E12" s="144"/>
       <c r="F12" s="94"/>
       <c r="G12" s="122"/>
       <c r="H12" s="122"/>
@@ -40452,15 +40468,15 @@
       <c r="K12" s="122"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="143"/>
-      <c r="B13" s="160"/>
+      <c r="A13" s="150"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="110" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="94">
         <v>2</v>
       </c>
-      <c r="E13" s="158"/>
+      <c r="E13" s="145"/>
       <c r="F13" s="94"/>
       <c r="G13" s="122"/>
       <c r="H13" s="122"/>
@@ -40469,8 +40485,8 @@
       <c r="K13" s="122"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="143"/>
-      <c r="B14" s="158"/>
+      <c r="A14" s="150"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="113" t="s">
         <v>211</v>
       </c>
@@ -40486,8 +40502,8 @@
       <c r="K14" s="122"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="143"/>
-      <c r="B15" s="161" t="s">
+      <c r="A15" s="150"/>
+      <c r="B15" s="143" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="111" t="s">
@@ -40496,7 +40512,7 @@
       <c r="D15" s="94">
         <v>2</v>
       </c>
-      <c r="E15" s="161" t="s">
+      <c r="E15" s="143" t="s">
         <v>320</v>
       </c>
       <c r="F15" s="94"/>
@@ -40507,15 +40523,15 @@
       <c r="K15" s="122"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
-      <c r="B16" s="160"/>
+      <c r="A16" s="150"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="110" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="94">
         <v>1</v>
       </c>
-      <c r="E16" s="160"/>
+      <c r="E16" s="144"/>
       <c r="F16" s="94"/>
       <c r="G16" s="122"/>
       <c r="H16" s="122"/>
@@ -40524,15 +40540,15 @@
       <c r="K16" s="122"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="143"/>
-      <c r="B17" s="160"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="110" t="s">
         <v>225</v>
       </c>
       <c r="D17" s="94">
         <v>1</v>
       </c>
-      <c r="E17" s="158"/>
+      <c r="E17" s="145"/>
       <c r="F17" s="94"/>
       <c r="G17" s="122"/>
       <c r="H17" s="122"/>
@@ -40541,8 +40557,8 @@
       <c r="K17" s="122"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="143"/>
-      <c r="B18" s="158"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="113" t="s">
         <v>228</v>
       </c>
@@ -40558,8 +40574,8 @@
       <c r="K18" s="122"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="143"/>
-      <c r="B19" s="161" t="s">
+      <c r="A19" s="150"/>
+      <c r="B19" s="143" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="107" t="s">
@@ -40568,7 +40584,7 @@
       <c r="D19" s="94">
         <v>1</v>
       </c>
-      <c r="E19" s="161" t="s">
+      <c r="E19" s="143" t="s">
         <v>328</v>
       </c>
       <c r="F19" s="94"/>
@@ -40579,15 +40595,15 @@
       <c r="K19" s="122"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="143"/>
-      <c r="B20" s="158"/>
+      <c r="A20" s="150"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="107" t="s">
         <v>184</v>
       </c>
       <c r="D20" s="94">
         <v>2</v>
       </c>
-      <c r="E20" s="160"/>
+      <c r="E20" s="144"/>
       <c r="F20" s="94"/>
       <c r="G20" s="122"/>
       <c r="H20" s="122"/>
@@ -40596,8 +40612,8 @@
       <c r="K20" s="122"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="143"/>
-      <c r="B21" s="161" t="s">
+      <c r="A21" s="150"/>
+      <c r="B21" s="143" t="s">
         <v>193</v>
       </c>
       <c r="C21" s="107" t="s">
@@ -40606,7 +40622,7 @@
       <c r="D21" s="94">
         <v>3</v>
       </c>
-      <c r="E21" s="158"/>
+      <c r="E21" s="145"/>
       <c r="F21" s="94"/>
       <c r="G21" s="122"/>
       <c r="H21" s="122"/>
@@ -40615,13 +40631,13 @@
       <c r="K21" s="122"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="143"/>
-      <c r="B22" s="158"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="113" t="s">
         <v>194</v>
       </c>
       <c r="D22" s="94"/>
-      <c r="E22" s="161" t="s">
+      <c r="E22" s="143" t="s">
         <v>322</v>
       </c>
       <c r="F22" s="94"/>
@@ -40632,15 +40648,15 @@
       <c r="K22" s="122"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="143"/>
-      <c r="B23" s="161" t="s">
+      <c r="A23" s="150"/>
+      <c r="B23" s="143" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="113" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="94"/>
-      <c r="E23" s="160"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="94"/>
       <c r="G23" s="122"/>
       <c r="H23" s="122"/>
@@ -40649,13 +40665,13 @@
       <c r="K23" s="122"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="143"/>
-      <c r="B24" s="160"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="113" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="94"/>
-      <c r="E24" s="160"/>
+      <c r="E24" s="144"/>
       <c r="F24" s="94"/>
       <c r="G24" s="122"/>
       <c r="H24" s="122"/>
@@ -40664,13 +40680,13 @@
       <c r="K24" s="122"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="143"/>
-      <c r="B25" s="158"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="113" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="94"/>
-      <c r="E25" s="158"/>
+      <c r="E25" s="145"/>
       <c r="F25" s="94"/>
       <c r="G25" s="122"/>
       <c r="H25" s="122"/>
@@ -40679,57 +40695,69 @@
       <c r="K25" s="122"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="143"/>
-      <c r="B26" s="161" t="s">
+      <c r="A26" s="150"/>
+      <c r="B26" s="143" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="94"/>
-      <c r="E26" s="161" t="s">
+      <c r="E26" s="143" t="s">
         <v>317</v>
       </c>
       <c r="F26" s="94"/>
-      <c r="G26" s="122"/>
+      <c r="G26" s="122" t="s">
+        <v>331</v>
+      </c>
       <c r="H26" s="122"/>
       <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
+      <c r="J26" s="122" t="s">
+        <v>341</v>
+      </c>
       <c r="K26" s="122"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="143"/>
-      <c r="B27" s="160"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="107" t="s">
         <v>178</v>
       </c>
       <c r="D27" s="94"/>
-      <c r="E27" s="160"/>
+      <c r="E27" s="144"/>
       <c r="F27" s="94"/>
-      <c r="G27" s="122"/>
+      <c r="G27" s="122" t="s">
+        <v>331</v>
+      </c>
       <c r="H27" s="122"/>
       <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
+      <c r="J27" s="122" t="s">
+        <v>341</v>
+      </c>
       <c r="K27" s="122"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="143"/>
-      <c r="B28" s="160"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="144"/>
       <c r="C28" s="107" t="s">
         <v>312</v>
       </c>
       <c r="D28" s="94"/>
-      <c r="E28" s="160"/>
+      <c r="E28" s="144"/>
       <c r="F28" s="94"/>
-      <c r="G28" s="122"/>
+      <c r="G28" s="122" t="s">
+        <v>331</v>
+      </c>
       <c r="H28" s="122"/>
       <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
+      <c r="J28" s="122" t="s">
+        <v>341</v>
+      </c>
       <c r="K28" s="122"/>
     </row>
     <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="164"/>
-      <c r="B29" s="162"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="108" t="s">
         <v>305</v>
       </c>
@@ -40745,17 +40773,17 @@
       <c r="K29" s="127"/>
     </row>
     <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="142" t="s">
+      <c r="A30" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="159" t="s">
+      <c r="B30" s="155" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="104" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="98"/>
-      <c r="E30" s="159" t="s">
+      <c r="E30" s="155" t="s">
         <v>318</v>
       </c>
       <c r="F30" s="98"/>
@@ -40770,13 +40798,13 @@
       <c r="K30" s="125"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="143"/>
-      <c r="B31" s="160"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="105" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="94"/>
-      <c r="E31" s="158"/>
+      <c r="E31" s="145"/>
       <c r="F31" s="94"/>
       <c r="G31" s="125" t="s">
         <v>332</v>
@@ -40789,13 +40817,13 @@
       <c r="K31" s="122"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="143"/>
-      <c r="B32" s="160"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="144"/>
       <c r="C32" s="114" t="s">
         <v>132</v>
       </c>
       <c r="D32" s="94"/>
-      <c r="E32" s="161" t="s">
+      <c r="E32" s="143" t="s">
         <v>321</v>
       </c>
       <c r="F32" s="94"/>
@@ -40806,13 +40834,13 @@
       <c r="K32" s="122"/>
     </row>
     <row r="33" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A33" s="143"/>
-      <c r="B33" s="158"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="114" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="94"/>
-      <c r="E33" s="158"/>
+      <c r="E33" s="145"/>
       <c r="F33" s="94"/>
       <c r="G33" s="122"/>
       <c r="H33" s="122"/>
@@ -40821,8 +40849,8 @@
       <c r="K33" s="122"/>
     </row>
     <row r="34" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A34" s="143"/>
-      <c r="B34" s="161" t="s">
+      <c r="A34" s="150"/>
+      <c r="B34" s="143" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="112" t="s">
@@ -40831,7 +40859,7 @@
       <c r="D34" s="95">
         <v>2</v>
       </c>
-      <c r="E34" s="161" t="s">
+      <c r="E34" s="143" t="s">
         <v>327</v>
       </c>
       <c r="F34" s="95"/>
@@ -40842,15 +40870,15 @@
       <c r="K34" s="127"/>
     </row>
     <row r="35" spans="1:16376" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="143"/>
-      <c r="B35" s="158"/>
+      <c r="A35" s="150"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="112" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="94">
         <v>3</v>
       </c>
-      <c r="E35" s="158"/>
+      <c r="E35" s="145"/>
       <c r="F35" s="94"/>
       <c r="G35" s="122"/>
       <c r="H35" s="122"/>
@@ -57243,10 +57271,10 @@
       <c r="K36" s="126"/>
     </row>
     <row r="37" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="142" t="s">
+      <c r="A37" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="159" t="s">
+      <c r="B37" s="155" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="106" t="s">
@@ -57255,7 +57283,7 @@
       <c r="D37" s="96">
         <v>3</v>
       </c>
-      <c r="E37" s="159" t="s">
+      <c r="E37" s="155" t="s">
         <v>319</v>
       </c>
       <c r="F37" s="96"/>
@@ -57270,15 +57298,15 @@
       <c r="K37" s="128"/>
     </row>
     <row r="38" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A38" s="143"/>
-      <c r="B38" s="158"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="102" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="94">
         <v>3</v>
       </c>
-      <c r="E38" s="158"/>
+      <c r="E38" s="145"/>
       <c r="F38" s="94"/>
       <c r="G38" s="125" t="s">
         <v>332</v>
@@ -57291,8 +57319,8 @@
       <c r="K38" s="122"/>
     </row>
     <row r="39" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A39" s="143"/>
-      <c r="B39" s="161" t="s">
+      <c r="A39" s="150"/>
+      <c r="B39" s="143" t="s">
         <v>280</v>
       </c>
       <c r="C39" s="110" t="s">
@@ -57301,7 +57329,7 @@
       <c r="D39" s="94">
         <v>1</v>
       </c>
-      <c r="E39" s="161" t="s">
+      <c r="E39" s="143" t="s">
         <v>320</v>
       </c>
       <c r="F39" s="94"/>
@@ -57312,15 +57340,15 @@
       <c r="K39" s="122"/>
     </row>
     <row r="40" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A40" s="143"/>
-      <c r="B40" s="160"/>
+      <c r="A40" s="150"/>
+      <c r="B40" s="144"/>
       <c r="C40" s="110" t="s">
         <v>283</v>
       </c>
       <c r="D40" s="94">
         <v>1</v>
       </c>
-      <c r="E40" s="160"/>
+      <c r="E40" s="144"/>
       <c r="F40" s="94"/>
       <c r="G40" s="122"/>
       <c r="H40" s="122"/>
@@ -57329,15 +57357,15 @@
       <c r="K40" s="122"/>
     </row>
     <row r="41" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A41" s="143"/>
-      <c r="B41" s="158"/>
+      <c r="A41" s="150"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="94">
         <v>1</v>
       </c>
-      <c r="E41" s="158"/>
+      <c r="E41" s="145"/>
       <c r="F41" s="94"/>
       <c r="G41" s="122"/>
       <c r="H41" s="122"/>
@@ -57346,8 +57374,8 @@
       <c r="K41" s="122"/>
     </row>
     <row r="42" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A42" s="143"/>
-      <c r="B42" s="161" t="s">
+      <c r="A42" s="150"/>
+      <c r="B42" s="143" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="107" t="s">
@@ -57356,7 +57384,7 @@
       <c r="D42" s="94">
         <v>2</v>
       </c>
-      <c r="E42" s="161" t="s">
+      <c r="E42" s="143" t="s">
         <v>326</v>
       </c>
       <c r="F42" s="94"/>
@@ -57367,15 +57395,15 @@
       <c r="K42" s="122"/>
     </row>
     <row r="43" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A43" s="143"/>
-      <c r="B43" s="158"/>
+      <c r="A43" s="150"/>
+      <c r="B43" s="145"/>
       <c r="C43" s="107" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="94">
         <v>3</v>
       </c>
-      <c r="E43" s="158"/>
+      <c r="E43" s="145"/>
       <c r="F43" s="94"/>
       <c r="G43" s="122"/>
       <c r="H43" s="122"/>
@@ -57384,15 +57412,15 @@
       <c r="K43" s="122"/>
     </row>
     <row r="44" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A44" s="143"/>
-      <c r="B44" s="161" t="s">
+      <c r="A44" s="150"/>
+      <c r="B44" s="143" t="s">
         <v>154</v>
       </c>
       <c r="C44" s="113" t="s">
         <v>155</v>
       </c>
       <c r="D44" s="94"/>
-      <c r="E44" s="161" t="s">
+      <c r="E44" s="143" t="s">
         <v>324</v>
       </c>
       <c r="F44" s="94"/>
@@ -57403,13 +57431,13 @@
       <c r="K44" s="122"/>
     </row>
     <row r="45" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A45" s="143"/>
-      <c r="B45" s="158"/>
+      <c r="A45" s="150"/>
+      <c r="B45" s="145"/>
       <c r="C45" s="113" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="94"/>
-      <c r="E45" s="158"/>
+      <c r="E45" s="145"/>
       <c r="F45" s="94"/>
       <c r="G45" s="122"/>
       <c r="H45" s="122"/>
@@ -57418,15 +57446,15 @@
       <c r="K45" s="122"/>
     </row>
     <row r="46" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A46" s="143"/>
-      <c r="B46" s="161" t="s">
+      <c r="A46" s="150"/>
+      <c r="B46" s="143" t="s">
         <v>301</v>
       </c>
       <c r="C46" s="108" t="s">
         <v>303</v>
       </c>
       <c r="D46" s="95"/>
-      <c r="E46" s="161" t="s">
+      <c r="E46" s="143" t="s">
         <v>325</v>
       </c>
       <c r="F46" s="95"/>
@@ -57438,12 +57466,12 @@
     </row>
     <row r="47" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="164"/>
-      <c r="B47" s="162"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="108" t="s">
         <v>304</v>
       </c>
       <c r="D47" s="95"/>
-      <c r="E47" s="162"/>
+      <c r="E47" s="156"/>
       <c r="F47" s="95"/>
       <c r="G47" s="127"/>
       <c r="H47" s="127"/>
@@ -57747,15 +57775,20 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E25"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
@@ -57766,20 +57799,15 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
